--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_64ha_100ha_2%_0m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_64ha_100ha_2%_0m_0_TSP/Planilha_Unificada.xlsx
@@ -6802,28 +6802,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1079.374586319852</v>
+        <v>1275.110846308038</v>
       </c>
       <c r="AB2" t="n">
-        <v>1476.847927648814</v>
+        <v>1744.662913838994</v>
       </c>
       <c r="AC2" t="n">
-        <v>1335.899634203096</v>
+        <v>1578.154733991978</v>
       </c>
       <c r="AD2" t="n">
-        <v>1079374.586319852</v>
+        <v>1275110.846308038</v>
       </c>
       <c r="AE2" t="n">
-        <v>1476847.927648814</v>
+        <v>1744662.913838994</v>
       </c>
       <c r="AF2" t="n">
         <v>4.059273227547832e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.66536458333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1335899.634203095</v>
+        <v>1578154.733991978</v>
       </c>
     </row>
     <row r="3">
@@ -6908,28 +6908,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>566.8600318450546</v>
+        <v>694.0766429408022</v>
       </c>
       <c r="AB3" t="n">
-        <v>775.6029036700264</v>
+        <v>949.6662833720067</v>
       </c>
       <c r="AC3" t="n">
-        <v>701.5804511092705</v>
+        <v>859.0314661519814</v>
       </c>
       <c r="AD3" t="n">
-        <v>566860.0318450546</v>
+        <v>694076.6429408023</v>
       </c>
       <c r="AE3" t="n">
-        <v>775602.9036700265</v>
+        <v>949666.2833720066</v>
       </c>
       <c r="AF3" t="n">
         <v>6.386159151784183e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.57682291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>701580.4511092704</v>
+        <v>859031.4661519814</v>
       </c>
     </row>
     <row r="4">
@@ -7014,28 +7014,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>477.029260340748</v>
+        <v>584.7029943145798</v>
       </c>
       <c r="AB4" t="n">
-        <v>652.6924790438935</v>
+        <v>800.0164320967787</v>
       </c>
       <c r="AC4" t="n">
-        <v>590.4004249035914</v>
+        <v>723.6639866475759</v>
       </c>
       <c r="AD4" t="n">
-        <v>477029.2603407479</v>
+        <v>584702.9943145798</v>
       </c>
       <c r="AE4" t="n">
-        <v>652692.4790438935</v>
+        <v>800016.4320967786</v>
       </c>
       <c r="AF4" t="n">
         <v>7.249459866111822e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.64713541666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>590400.4249035914</v>
+        <v>723663.986647576</v>
       </c>
     </row>
     <row r="5">
@@ -7120,28 +7120,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>441.6663270940547</v>
+        <v>539.4842199898337</v>
       </c>
       <c r="AB5" t="n">
-        <v>604.3073536732596</v>
+        <v>738.146110154132</v>
       </c>
       <c r="AC5" t="n">
-        <v>546.6331079893808</v>
+        <v>667.6984813955931</v>
       </c>
       <c r="AD5" t="n">
-        <v>441666.3270940547</v>
+        <v>539484.2199898338</v>
       </c>
       <c r="AE5" t="n">
-        <v>604307.3536732596</v>
+        <v>738146.110154132</v>
       </c>
       <c r="AF5" t="n">
         <v>7.716187088378872e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.33854166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>546633.1079893808</v>
+        <v>667698.4813955931</v>
       </c>
     </row>
     <row r="6">
@@ -7226,28 +7226,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>418.0948169616328</v>
+        <v>515.9800296651164</v>
       </c>
       <c r="AB6" t="n">
-        <v>572.0557736084455</v>
+        <v>705.9866400201593</v>
       </c>
       <c r="AC6" t="n">
-        <v>517.4595734605756</v>
+        <v>638.6082659551071</v>
       </c>
       <c r="AD6" t="n">
-        <v>418094.8169616328</v>
+        <v>515980.0296651163</v>
       </c>
       <c r="AE6" t="n">
-        <v>572055.7736084455</v>
+        <v>705986.6400201593</v>
       </c>
       <c r="AF6" t="n">
         <v>7.994632306208647e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.63541666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>517459.5734605756</v>
+        <v>638608.2659551071</v>
       </c>
     </row>
     <row r="7">
@@ -7332,28 +7332,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>408.613961264955</v>
+        <v>496.6774983091667</v>
       </c>
       <c r="AB7" t="n">
-        <v>559.0836485784175</v>
+        <v>679.5760650513661</v>
       </c>
       <c r="AC7" t="n">
-        <v>505.7254898369217</v>
+        <v>614.7182791938607</v>
       </c>
       <c r="AD7" t="n">
-        <v>408613.9612649551</v>
+        <v>496677.4983091666</v>
       </c>
       <c r="AE7" t="n">
-        <v>559083.6485784175</v>
+        <v>679576.0650513661</v>
       </c>
       <c r="AF7" t="n">
         <v>8.201718403278585e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.13411458333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>505725.4898369217</v>
+        <v>614718.2791938607</v>
       </c>
     </row>
     <row r="8">
@@ -7438,28 +7438,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>392.582395797999</v>
+        <v>490.4334430827017</v>
       </c>
       <c r="AB8" t="n">
-        <v>537.148553443776</v>
+        <v>671.032673222242</v>
       </c>
       <c r="AC8" t="n">
-        <v>485.8838493958309</v>
+        <v>606.9902566901823</v>
       </c>
       <c r="AD8" t="n">
-        <v>392582.395797999</v>
+        <v>490433.4430827017</v>
       </c>
       <c r="AE8" t="n">
-        <v>537148.553443776</v>
+        <v>671032.673222242</v>
       </c>
       <c r="AF8" t="n">
         <v>8.334552442260579e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.828125</v>
       </c>
       <c r="AH8" t="n">
-        <v>485883.8493958309</v>
+        <v>606990.2566901823</v>
       </c>
     </row>
     <row r="9">
@@ -7544,28 +7544,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>387.2070477256623</v>
+        <v>485.058095010365</v>
       </c>
       <c r="AB9" t="n">
-        <v>529.7937650675847</v>
+        <v>663.6778848460508</v>
       </c>
       <c r="AC9" t="n">
-        <v>479.230991699753</v>
+        <v>600.3373989941044</v>
       </c>
       <c r="AD9" t="n">
-        <v>387207.0477256624</v>
+        <v>485058.095010365</v>
       </c>
       <c r="AE9" t="n">
-        <v>529793.7650675847</v>
+        <v>663677.8848460508</v>
       </c>
       <c r="AF9" t="n">
         <v>8.451957482159369e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.56770833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>479230.991699753</v>
+        <v>600337.3989941045</v>
       </c>
     </row>
     <row r="10">
@@ -7650,28 +7650,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>383.5136332469681</v>
+        <v>471.5430048723989</v>
       </c>
       <c r="AB10" t="n">
-        <v>524.7402724358884</v>
+        <v>645.1859422755894</v>
       </c>
       <c r="AC10" t="n">
-        <v>474.6597973122043</v>
+        <v>583.6103014689635</v>
       </c>
       <c r="AD10" t="n">
-        <v>383513.6332469682</v>
+        <v>471543.0048723989</v>
       </c>
       <c r="AE10" t="n">
-        <v>524740.2724358884</v>
+        <v>645185.9422755893</v>
       </c>
       <c r="AF10" t="n">
         <v>8.534647274120939e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.39192708333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>474659.7973122043</v>
+        <v>583610.3014689635</v>
       </c>
     </row>
     <row r="11">
@@ -7756,28 +7756,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>380.3120651169119</v>
+        <v>468.3414367423426</v>
       </c>
       <c r="AB11" t="n">
-        <v>520.359745677128</v>
+        <v>640.805415516829</v>
       </c>
       <c r="AC11" t="n">
-        <v>470.6973418791922</v>
+        <v>579.6478460359513</v>
       </c>
       <c r="AD11" t="n">
-        <v>380312.0651169119</v>
+        <v>468341.4367423427</v>
       </c>
       <c r="AE11" t="n">
-        <v>520359.745677128</v>
+        <v>640805.415516829</v>
       </c>
       <c r="AF11" t="n">
         <v>8.604559926216726e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>18.2421875</v>
       </c>
       <c r="AH11" t="n">
-        <v>470697.3418791922</v>
+        <v>579647.8460359513</v>
       </c>
     </row>
     <row r="12">
@@ -7862,28 +7862,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>377.4872223900196</v>
+        <v>465.5165940154504</v>
       </c>
       <c r="AB12" t="n">
-        <v>516.4946712349284</v>
+        <v>636.9403410746294</v>
       </c>
       <c r="AC12" t="n">
-        <v>467.20114471709</v>
+        <v>576.1516488738492</v>
       </c>
       <c r="AD12" t="n">
-        <v>377487.2223900196</v>
+        <v>465516.5940154504</v>
       </c>
       <c r="AE12" t="n">
-        <v>516494.6712349284</v>
+        <v>636940.3410746293</v>
       </c>
       <c r="AF12" t="n">
         <v>8.659525735450655e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>18.125</v>
       </c>
       <c r="AH12" t="n">
-        <v>467201.14471709</v>
+        <v>576151.6488738492</v>
       </c>
     </row>
     <row r="13">
@@ -7968,28 +7968,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>375.1764551863018</v>
+        <v>463.2058268117325</v>
       </c>
       <c r="AB13" t="n">
-        <v>513.3329776029475</v>
+        <v>633.7786474426484</v>
       </c>
       <c r="AC13" t="n">
-        <v>464.3411986878804</v>
+        <v>573.2917028446395</v>
       </c>
       <c r="AD13" t="n">
-        <v>375176.4551863018</v>
+        <v>463205.8268117325</v>
       </c>
       <c r="AE13" t="n">
-        <v>513332.9776029475</v>
+        <v>633778.6474426484</v>
       </c>
       <c r="AF13" t="n">
         <v>8.704607342146905e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>19</v>
+        <v>18.03385416666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>464341.1986878804</v>
+        <v>573291.7028446395</v>
       </c>
     </row>
     <row r="14">
@@ -8074,28 +8074,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>362.7457667705638</v>
+        <v>460.5626486364857</v>
       </c>
       <c r="AB14" t="n">
-        <v>496.3247613092662</v>
+        <v>630.1621344544844</v>
       </c>
       <c r="AC14" t="n">
-        <v>448.9562226860866</v>
+        <v>570.0203447802581</v>
       </c>
       <c r="AD14" t="n">
-        <v>362745.7667705638</v>
+        <v>460562.6486364857</v>
       </c>
       <c r="AE14" t="n">
-        <v>496324.7613092662</v>
+        <v>630162.1344544844</v>
       </c>
       <c r="AF14" t="n">
         <v>8.753787276724631e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.9296875</v>
       </c>
       <c r="AH14" t="n">
-        <v>448956.2226860865</v>
+        <v>570020.3447802581</v>
       </c>
     </row>
     <row r="15">
@@ -8180,28 +8180,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>361.4008587770284</v>
+        <v>459.2177406429502</v>
       </c>
       <c r="AB15" t="n">
-        <v>494.4845988593578</v>
+        <v>628.3219720045759</v>
       </c>
       <c r="AC15" t="n">
-        <v>447.2916827577133</v>
+        <v>568.3558048518847</v>
       </c>
       <c r="AD15" t="n">
-        <v>361400.8587770283</v>
+        <v>459217.7406429502</v>
       </c>
       <c r="AE15" t="n">
-        <v>494484.5988593578</v>
+        <v>628321.9720045759</v>
       </c>
       <c r="AF15" t="n">
         <v>8.772832447467966e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>17.890625</v>
       </c>
       <c r="AH15" t="n">
-        <v>447291.6827577132</v>
+        <v>568355.8048518847</v>
       </c>
     </row>
     <row r="16">
@@ -8286,28 +8286,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>358.206251790338</v>
+        <v>446.3029432234732</v>
       </c>
       <c r="AB16" t="n">
-        <v>490.1135966440546</v>
+        <v>610.6513764145971</v>
       </c>
       <c r="AC16" t="n">
-        <v>443.3378428590984</v>
+        <v>552.3716661041767</v>
       </c>
       <c r="AD16" t="n">
-        <v>358206.251790338</v>
+        <v>446302.9432234732</v>
       </c>
       <c r="AE16" t="n">
-        <v>490113.5966440546</v>
+        <v>610651.376414597</v>
       </c>
       <c r="AF16" t="n">
         <v>8.830932272140672e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>18</v>
+        <v>17.7734375</v>
       </c>
       <c r="AH16" t="n">
-        <v>443337.8428590985</v>
+        <v>552371.6661041767</v>
       </c>
     </row>
     <row r="17">
@@ -8392,28 +8392,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>356.7728695077282</v>
+        <v>444.8695609408633</v>
       </c>
       <c r="AB17" t="n">
-        <v>488.1523797686245</v>
+        <v>608.690159539167</v>
       </c>
       <c r="AC17" t="n">
-        <v>441.5638017696742</v>
+        <v>550.5976250147525</v>
       </c>
       <c r="AD17" t="n">
-        <v>356772.8695077281</v>
+        <v>444869.5609408633</v>
       </c>
       <c r="AE17" t="n">
-        <v>488152.3797686245</v>
+        <v>608690.159539167</v>
       </c>
       <c r="AF17" t="n">
         <v>8.85287038021211e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>17.72786458333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>441563.8017696742</v>
+        <v>550597.6250147525</v>
       </c>
     </row>
     <row r="18">
@@ -8498,28 +8498,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>354.9907456137197</v>
+        <v>443.0874370468547</v>
       </c>
       <c r="AB18" t="n">
-        <v>485.7139992350847</v>
+        <v>606.2517790056271</v>
       </c>
       <c r="AC18" t="n">
-        <v>439.3581368519669</v>
+        <v>548.3919600970452</v>
       </c>
       <c r="AD18" t="n">
-        <v>354990.7456137197</v>
+        <v>443087.4370468548</v>
       </c>
       <c r="AE18" t="n">
-        <v>485713.9992350847</v>
+        <v>606251.7790056271</v>
       </c>
       <c r="AF18" t="n">
         <v>8.879147894275698e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>18</v>
+        <v>17.67578125</v>
       </c>
       <c r="AH18" t="n">
-        <v>439358.1368519669</v>
+        <v>548391.9600970452</v>
       </c>
     </row>
     <row r="19">
@@ -8604,28 +8604,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>354.1010374534604</v>
+        <v>442.1977288865956</v>
       </c>
       <c r="AB19" t="n">
-        <v>484.4966612790642</v>
+        <v>605.0344410496068</v>
       </c>
       <c r="AC19" t="n">
-        <v>438.2569799219244</v>
+        <v>547.2908031670028</v>
       </c>
       <c r="AD19" t="n">
-        <v>354101.0374534604</v>
+        <v>442197.7288865956</v>
       </c>
       <c r="AE19" t="n">
-        <v>484496.6612790642</v>
+        <v>605034.4410496068</v>
       </c>
       <c r="AF19" t="n">
         <v>8.881558675382449e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>18</v>
+        <v>17.66927083333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>438256.9799219244</v>
+        <v>547290.8031670027</v>
       </c>
     </row>
     <row r="20">
@@ -8710,28 +8710,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>353.452363916081</v>
+        <v>441.5490553492161</v>
       </c>
       <c r="AB20" t="n">
-        <v>483.6091175277649</v>
+        <v>604.1468972983074</v>
       </c>
       <c r="AC20" t="n">
-        <v>437.4541421005737</v>
+        <v>546.487965345652</v>
       </c>
       <c r="AD20" t="n">
-        <v>353452.363916081</v>
+        <v>441549.0553492162</v>
       </c>
       <c r="AE20" t="n">
-        <v>483609.1175277649</v>
+        <v>604146.8972983074</v>
       </c>
       <c r="AF20" t="n">
         <v>8.899157377461732e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>18</v>
+        <v>17.63671875</v>
       </c>
       <c r="AH20" t="n">
-        <v>437454.1421005738</v>
+        <v>546487.965345652</v>
       </c>
     </row>
     <row r="21">
@@ -8816,28 +8816,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>351.2716168500647</v>
+        <v>439.3683082831998</v>
       </c>
       <c r="AB21" t="n">
-        <v>480.6253231842709</v>
+        <v>601.1631029548134</v>
       </c>
       <c r="AC21" t="n">
-        <v>434.7551169014411</v>
+        <v>543.7889401465193</v>
       </c>
       <c r="AD21" t="n">
-        <v>351271.6168500647</v>
+        <v>439368.3082831998</v>
       </c>
       <c r="AE21" t="n">
-        <v>480625.3231842709</v>
+        <v>601163.1029548134</v>
       </c>
       <c r="AF21" t="n">
         <v>8.927845672632075e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>18</v>
+        <v>17.578125</v>
       </c>
       <c r="AH21" t="n">
-        <v>434755.1169014411</v>
+        <v>543788.9401465193</v>
       </c>
     </row>
     <row r="22">
@@ -8922,28 +8922,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>350.4299516931962</v>
+        <v>438.5266431263314</v>
       </c>
       <c r="AB22" t="n">
-        <v>479.4737197849973</v>
+        <v>600.0114995555398</v>
       </c>
       <c r="AC22" t="n">
-        <v>433.7134209143086</v>
+        <v>542.7472441593869</v>
       </c>
       <c r="AD22" t="n">
-        <v>350429.9516931962</v>
+        <v>438526.6431263314</v>
       </c>
       <c r="AE22" t="n">
-        <v>479473.7197849973</v>
+        <v>600011.4995555398</v>
       </c>
       <c r="AF22" t="n">
         <v>8.924229500971947e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>18</v>
+        <v>17.58463541666667</v>
       </c>
       <c r="AH22" t="n">
-        <v>433713.4209143086</v>
+        <v>542747.244159387</v>
       </c>
     </row>
     <row r="23">
@@ -9028,28 +9028,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>349.0415859307878</v>
+        <v>437.138277363923</v>
       </c>
       <c r="AB23" t="n">
-        <v>477.5740964984957</v>
+        <v>598.111876269038</v>
       </c>
       <c r="AC23" t="n">
-        <v>431.9950950081326</v>
+        <v>541.0289182532108</v>
       </c>
       <c r="AD23" t="n">
-        <v>349041.5859307878</v>
+        <v>437138.277363923</v>
       </c>
       <c r="AE23" t="n">
-        <v>477574.0964984957</v>
+        <v>598111.8762690381</v>
       </c>
       <c r="AF23" t="n">
         <v>8.951953483699587e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>18</v>
+        <v>17.53255208333333</v>
       </c>
       <c r="AH23" t="n">
-        <v>431995.0950081326</v>
+        <v>541028.9182532108</v>
       </c>
     </row>
     <row r="24">
@@ -9134,28 +9134,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>347.8688167309169</v>
+        <v>435.9655081640519</v>
       </c>
       <c r="AB24" t="n">
-        <v>475.9694619403065</v>
+        <v>596.5072417108489</v>
       </c>
       <c r="AC24" t="n">
-        <v>430.5436045200582</v>
+        <v>539.5774277651366</v>
       </c>
       <c r="AD24" t="n">
-        <v>347868.8167309168</v>
+        <v>435965.5081640519</v>
       </c>
       <c r="AE24" t="n">
-        <v>475969.4619403065</v>
+        <v>596507.2417108489</v>
       </c>
       <c r="AF24" t="n">
         <v>8.949060546371485e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>18</v>
+        <v>17.5390625</v>
       </c>
       <c r="AH24" t="n">
-        <v>430543.6045200583</v>
+        <v>539577.4277651366</v>
       </c>
     </row>
     <row r="25">
@@ -9240,28 +9240,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>346.0142645571008</v>
+        <v>434.0094707637506</v>
       </c>
       <c r="AB25" t="n">
-        <v>473.4319818390238</v>
+        <v>593.8309050454769</v>
       </c>
       <c r="AC25" t="n">
-        <v>428.2482979582663</v>
+        <v>537.1565169148457</v>
       </c>
       <c r="AD25" t="n">
-        <v>346014.2645571008</v>
+        <v>434009.4707637506</v>
       </c>
       <c r="AE25" t="n">
-        <v>473431.9818390238</v>
+        <v>593830.905045477</v>
       </c>
       <c r="AF25" t="n">
         <v>8.978713153984527e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>18</v>
+        <v>17.48046875</v>
       </c>
       <c r="AH25" t="n">
-        <v>428248.2979582663</v>
+        <v>537156.5169148457</v>
       </c>
     </row>
     <row r="26">
@@ -9346,28 +9346,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>345.4561949590448</v>
+        <v>433.4514011656946</v>
       </c>
       <c r="AB26" t="n">
-        <v>472.6684063946705</v>
+        <v>593.0673296011237</v>
       </c>
       <c r="AC26" t="n">
-        <v>427.5575970826373</v>
+        <v>536.4658160392165</v>
       </c>
       <c r="AD26" t="n">
-        <v>345456.1949590447</v>
+        <v>433451.4011656946</v>
       </c>
       <c r="AE26" t="n">
-        <v>472668.4063946705</v>
+        <v>593067.3296011237</v>
       </c>
       <c r="AF26" t="n">
         <v>8.9741326698817e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>18</v>
+        <v>17.48697916666667</v>
       </c>
       <c r="AH26" t="n">
-        <v>427557.5970826373</v>
+        <v>536465.8160392165</v>
       </c>
     </row>
     <row r="27">
@@ -9452,28 +9452,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>343.9312525997115</v>
+        <v>431.9264588063614</v>
       </c>
       <c r="AB27" t="n">
-        <v>470.5819129829219</v>
+        <v>590.9808361893751</v>
       </c>
       <c r="AC27" t="n">
-        <v>425.670235673694</v>
+        <v>534.5784546302734</v>
       </c>
       <c r="AD27" t="n">
-        <v>343931.2525997115</v>
+        <v>431926.4588063614</v>
       </c>
       <c r="AE27" t="n">
-        <v>470581.9129829219</v>
+        <v>590980.836189375</v>
       </c>
       <c r="AF27" t="n">
         <v>8.998240480949211e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>18</v>
+        <v>17.44140625</v>
       </c>
       <c r="AH27" t="n">
-        <v>425670.2356736941</v>
+        <v>534578.4546302734</v>
       </c>
     </row>
     <row r="28">
@@ -9558,28 +9558,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>344.4753908306317</v>
+        <v>432.4705970372816</v>
       </c>
       <c r="AB28" t="n">
-        <v>471.3264269161515</v>
+        <v>591.7253501226046</v>
       </c>
       <c r="AC28" t="n">
-        <v>426.3436942420681</v>
+        <v>535.2519131986475</v>
       </c>
       <c r="AD28" t="n">
-        <v>344475.3908306317</v>
+        <v>432470.5970372816</v>
       </c>
       <c r="AE28" t="n">
-        <v>471326.4269161515</v>
+        <v>591725.3501226046</v>
       </c>
       <c r="AF28" t="n">
         <v>8.996794012285161e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>18</v>
+        <v>17.44791666666667</v>
       </c>
       <c r="AH28" t="n">
-        <v>426343.6942420681</v>
+        <v>535251.9131986474</v>
       </c>
     </row>
   </sheetData>
@@ -9855,28 +9855,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>798.1806640655445</v>
+        <v>962.7158341986017</v>
       </c>
       <c r="AB2" t="n">
-        <v>1092.105997820151</v>
+        <v>1317.230276375607</v>
       </c>
       <c r="AC2" t="n">
-        <v>987.87693416859</v>
+        <v>1191.515667542622</v>
       </c>
       <c r="AD2" t="n">
-        <v>798180.6640655445</v>
+        <v>962715.8341986017</v>
       </c>
       <c r="AE2" t="n">
-        <v>1092105.997820151</v>
+        <v>1317230.276375607</v>
       </c>
       <c r="AF2" t="n">
         <v>5.265389136174826e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.6171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>987876.93416859</v>
+        <v>1191515.667542622</v>
       </c>
     </row>
     <row r="3">
@@ -9961,28 +9961,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>480.9631112942069</v>
+        <v>597.0955356767233</v>
       </c>
       <c r="AB3" t="n">
-        <v>658.0749474676717</v>
+        <v>816.9724539088029</v>
       </c>
       <c r="AC3" t="n">
-        <v>595.269198095346</v>
+        <v>739.0017495357866</v>
       </c>
       <c r="AD3" t="n">
-        <v>480963.1112942069</v>
+        <v>597095.5356767233</v>
       </c>
       <c r="AE3" t="n">
-        <v>658074.9474676717</v>
+        <v>816972.4539088029</v>
       </c>
       <c r="AF3" t="n">
         <v>7.536831741835937e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.78645833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>595269.198095346</v>
+        <v>739001.7495357867</v>
       </c>
     </row>
     <row r="4">
@@ -10067,28 +10067,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>419.5994590193063</v>
+        <v>526.0513342517147</v>
       </c>
       <c r="AB4" t="n">
-        <v>574.1144912518772</v>
+        <v>719.7666432701436</v>
       </c>
       <c r="AC4" t="n">
-        <v>519.3218099815465</v>
+        <v>651.0731250352688</v>
       </c>
       <c r="AD4" t="n">
-        <v>419599.4590193063</v>
+        <v>526051.3342517148</v>
       </c>
       <c r="AE4" t="n">
-        <v>574114.4912518772</v>
+        <v>719766.6432701437</v>
       </c>
       <c r="AF4" t="n">
         <v>8.36933352600345e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.52083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>519321.8099815465</v>
+        <v>651073.1250352688</v>
       </c>
     </row>
     <row r="5">
@@ -10173,28 +10173,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>391.6810502724175</v>
+        <v>488.4865417734986</v>
       </c>
       <c r="AB5" t="n">
-        <v>535.9152927311171</v>
+        <v>668.3688369597664</v>
       </c>
       <c r="AC5" t="n">
-        <v>484.7682893546959</v>
+        <v>604.5806532218799</v>
       </c>
       <c r="AD5" t="n">
-        <v>391681.0502724174</v>
+        <v>488486.5417734986</v>
       </c>
       <c r="AE5" t="n">
-        <v>535915.2927311171</v>
+        <v>668368.8369597665</v>
       </c>
       <c r="AF5" t="n">
         <v>8.803521718886761e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.50520833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>484768.2893546959</v>
+        <v>604580.6532218799</v>
       </c>
     </row>
     <row r="6">
@@ -10279,28 +10279,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>370.9320357043206</v>
+        <v>467.7033617866209</v>
       </c>
       <c r="AB6" t="n">
-        <v>507.5255756171287</v>
+        <v>639.9323732125303</v>
       </c>
       <c r="AC6" t="n">
-        <v>459.0880469968483</v>
+        <v>578.8581256638523</v>
       </c>
       <c r="AD6" t="n">
-        <v>370932.0357043206</v>
+        <v>467703.3617866209</v>
       </c>
       <c r="AE6" t="n">
-        <v>507525.5756171287</v>
+        <v>639932.3732125303</v>
       </c>
       <c r="AF6" t="n">
         <v>9.085242854973866e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.89973958333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>459088.0469968483</v>
+        <v>578858.1256638523</v>
       </c>
     </row>
     <row r="7">
@@ -10385,28 +10385,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>364.1169792180532</v>
+        <v>460.8883053003535</v>
       </c>
       <c r="AB7" t="n">
-        <v>498.2009146735449</v>
+        <v>630.6077122689464</v>
       </c>
       <c r="AC7" t="n">
-        <v>450.6533186064763</v>
+        <v>570.4233972734802</v>
       </c>
       <c r="AD7" t="n">
-        <v>364116.9792180532</v>
+        <v>460888.3053003535</v>
       </c>
       <c r="AE7" t="n">
-        <v>498200.9146735449</v>
+        <v>630607.7122689465</v>
       </c>
       <c r="AF7" t="n">
         <v>9.263033159957677e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.54166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>450653.3186064763</v>
+        <v>570423.3972734802</v>
       </c>
     </row>
     <row r="8">
@@ -10491,28 +10491,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>358.7028982901296</v>
+        <v>445.7605208333982</v>
       </c>
       <c r="AB8" t="n">
-        <v>490.7931302955666</v>
+        <v>609.9092101705095</v>
       </c>
       <c r="AC8" t="n">
-        <v>443.9525227726416</v>
+        <v>551.7003311647879</v>
       </c>
       <c r="AD8" t="n">
-        <v>358702.8982901296</v>
+        <v>445760.5208333982</v>
       </c>
       <c r="AE8" t="n">
-        <v>490793.1302955666</v>
+        <v>609909.2101705095</v>
       </c>
       <c r="AF8" t="n">
         <v>9.401519673483642e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.26822916666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>443952.5227726416</v>
+        <v>551700.331164788</v>
       </c>
     </row>
     <row r="9">
@@ -10597,28 +10597,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>354.9083609557088</v>
+        <v>441.9659834989775</v>
       </c>
       <c r="AB9" t="n">
-        <v>485.6012769114397</v>
+        <v>604.7173567863827</v>
       </c>
       <c r="AC9" t="n">
-        <v>439.2561725886838</v>
+        <v>547.0039809808303</v>
       </c>
       <c r="AD9" t="n">
-        <v>354908.3609557088</v>
+        <v>441965.9834989775</v>
       </c>
       <c r="AE9" t="n">
-        <v>485601.2769114397</v>
+        <v>604717.3567863826</v>
       </c>
       <c r="AF9" t="n">
         <v>9.495690502681298e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.0859375</v>
       </c>
       <c r="AH9" t="n">
-        <v>439256.1725886838</v>
+        <v>547003.9809808303</v>
       </c>
     </row>
     <row r="10">
@@ -10703,28 +10703,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>341.8614566771461</v>
+        <v>438.5986173406657</v>
       </c>
       <c r="AB10" t="n">
-        <v>467.7499268887164</v>
+        <v>600.1099778508702</v>
       </c>
       <c r="AC10" t="n">
-        <v>423.1085303576021</v>
+        <v>542.8363238244261</v>
       </c>
       <c r="AD10" t="n">
-        <v>341861.4566771461</v>
+        <v>438598.6173406657</v>
       </c>
       <c r="AE10" t="n">
-        <v>467749.9268887164</v>
+        <v>600109.9778508702</v>
       </c>
       <c r="AF10" t="n">
         <v>9.567703489714799e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.94921875</v>
       </c>
       <c r="AH10" t="n">
-        <v>423108.5303576021</v>
+        <v>542836.3238244262</v>
       </c>
     </row>
     <row r="11">
@@ -10809,28 +10809,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>338.6925708388981</v>
+        <v>425.8175131898712</v>
       </c>
       <c r="AB11" t="n">
-        <v>463.414117483449</v>
+        <v>582.6223072892334</v>
       </c>
       <c r="AC11" t="n">
-        <v>419.1865245166268</v>
+        <v>527.0176519970922</v>
       </c>
       <c r="AD11" t="n">
-        <v>338692.5708388981</v>
+        <v>425817.5131898712</v>
       </c>
       <c r="AE11" t="n">
-        <v>463414.1174834491</v>
+        <v>582622.3072892334</v>
       </c>
       <c r="AF11" t="n">
         <v>9.638925125242439e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.81901041666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>419186.5245166268</v>
+        <v>527017.6519970922</v>
       </c>
     </row>
     <row r="12">
@@ -10915,28 +10915,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>336.2586342640726</v>
+        <v>423.3835766150456</v>
       </c>
       <c r="AB12" t="n">
-        <v>460.0838980840694</v>
+        <v>579.2920878898539</v>
       </c>
       <c r="AC12" t="n">
-        <v>416.1741365827316</v>
+        <v>524.005264063197</v>
       </c>
       <c r="AD12" t="n">
-        <v>336258.6342640726</v>
+        <v>423383.5766150456</v>
       </c>
       <c r="AE12" t="n">
-        <v>460083.8980840694</v>
+        <v>579292.0878898539</v>
       </c>
       <c r="AF12" t="n">
         <v>9.689307837782361e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.72135416666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>416174.1365827316</v>
+        <v>524005.2640631971</v>
       </c>
     </row>
     <row r="13">
@@ -11021,28 +11021,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>334.7555309174154</v>
+        <v>421.8804732683884</v>
       </c>
       <c r="AB13" t="n">
-        <v>458.0272857729335</v>
+        <v>577.2354755787179</v>
       </c>
       <c r="AC13" t="n">
-        <v>414.313804464097</v>
+        <v>522.1449319445625</v>
       </c>
       <c r="AD13" t="n">
-        <v>334755.5309174154</v>
+        <v>421880.4732683884</v>
       </c>
       <c r="AE13" t="n">
-        <v>458027.2857729335</v>
+        <v>577235.4755787179</v>
       </c>
       <c r="AF13" t="n">
         <v>9.704871084064327e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.6953125</v>
       </c>
       <c r="AH13" t="n">
-        <v>414313.804464097</v>
+        <v>522144.9319445625</v>
       </c>
     </row>
     <row r="14">
@@ -11127,28 +11127,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>331.67027188858</v>
+        <v>418.7952142395531</v>
       </c>
       <c r="AB14" t="n">
-        <v>453.8058982576589</v>
+        <v>573.0140880634433</v>
       </c>
       <c r="AC14" t="n">
-        <v>410.4953002485256</v>
+        <v>518.326427728991</v>
       </c>
       <c r="AD14" t="n">
-        <v>331670.27188858</v>
+        <v>418795.2142395531</v>
       </c>
       <c r="AE14" t="n">
-        <v>453805.8982576589</v>
+        <v>573014.0880634433</v>
       </c>
       <c r="AF14" t="n">
         <v>9.766596501521614e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.58463541666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>410495.3002485256</v>
+        <v>518326.427728991</v>
       </c>
     </row>
     <row r="15">
@@ -11233,28 +11233,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>330.070674898066</v>
+        <v>417.195617249039</v>
       </c>
       <c r="AB15" t="n">
-        <v>451.6172590859989</v>
+        <v>570.8254488917834</v>
       </c>
       <c r="AC15" t="n">
-        <v>408.5155417276345</v>
+        <v>516.3466692080999</v>
       </c>
       <c r="AD15" t="n">
-        <v>330070.674898066</v>
+        <v>417195.617249039</v>
       </c>
       <c r="AE15" t="n">
-        <v>451617.2590859989</v>
+        <v>570825.4488917834</v>
       </c>
       <c r="AF15" t="n">
         <v>9.790073262862205e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>17.5390625</v>
       </c>
       <c r="AH15" t="n">
-        <v>408515.5417276345</v>
+        <v>516346.6692080999</v>
       </c>
     </row>
     <row r="16">
@@ -11339,28 +11339,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>328.1041576809617</v>
+        <v>415.1276148054495</v>
       </c>
       <c r="AB16" t="n">
-        <v>448.9265834729402</v>
+        <v>567.9959167146352</v>
       </c>
       <c r="AC16" t="n">
-        <v>406.0816604186991</v>
+        <v>513.7871836106656</v>
       </c>
       <c r="AD16" t="n">
-        <v>328104.1576809618</v>
+        <v>415127.6148054495</v>
       </c>
       <c r="AE16" t="n">
-        <v>448926.5834729402</v>
+        <v>567995.9167146352</v>
       </c>
       <c r="AF16" t="n">
         <v>9.819880836249699e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>18</v>
+        <v>17.48697916666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>406081.6604186991</v>
+        <v>513787.1836106656</v>
       </c>
     </row>
     <row r="17">
@@ -11445,28 +11445,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>326.7700276824547</v>
+        <v>413.7934848069426</v>
       </c>
       <c r="AB17" t="n">
-        <v>447.1011679513214</v>
+        <v>566.1705011930165</v>
       </c>
       <c r="AC17" t="n">
-        <v>404.4304599924769</v>
+        <v>512.1359831844434</v>
       </c>
       <c r="AD17" t="n">
-        <v>326770.0276824547</v>
+        <v>413793.4848069426</v>
       </c>
       <c r="AE17" t="n">
-        <v>447101.1679513214</v>
+        <v>566170.5011930165</v>
       </c>
       <c r="AF17" t="n">
         <v>9.834652731025803e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>17.4609375</v>
       </c>
       <c r="AH17" t="n">
-        <v>404430.4599924769</v>
+        <v>512135.9831844434</v>
       </c>
     </row>
     <row r="18">
@@ -11551,28 +11551,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>324.4209602908905</v>
+        <v>411.4444174153783</v>
       </c>
       <c r="AB18" t="n">
-        <v>443.887070312644</v>
+        <v>562.956403554339</v>
       </c>
       <c r="AC18" t="n">
-        <v>401.5231113214204</v>
+        <v>509.2286345133869</v>
       </c>
       <c r="AD18" t="n">
-        <v>324420.9602908905</v>
+        <v>411444.4174153783</v>
       </c>
       <c r="AE18" t="n">
-        <v>443887.0703126439</v>
+        <v>562956.403554339</v>
       </c>
       <c r="AF18" t="n">
         <v>9.865515439754446e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>18</v>
+        <v>17.40885416666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>401523.1113214204</v>
+        <v>509228.6345133869</v>
       </c>
     </row>
     <row r="19">
@@ -11657,28 +11657,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>322.3358787234534</v>
+        <v>409.3593358479412</v>
       </c>
       <c r="AB19" t="n">
-        <v>441.0341697247699</v>
+        <v>560.1035029664649</v>
       </c>
       <c r="AC19" t="n">
-        <v>398.942487561582</v>
+        <v>506.6480107535485</v>
       </c>
       <c r="AD19" t="n">
-        <v>322335.8787234534</v>
+        <v>409359.3358479412</v>
       </c>
       <c r="AE19" t="n">
-        <v>441034.1697247699</v>
+        <v>560103.502966465</v>
       </c>
       <c r="AF19" t="n">
         <v>9.893476526294925e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>18</v>
+        <v>17.35677083333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>398942.487561582</v>
+        <v>506648.0107535485</v>
       </c>
     </row>
     <row r="20">
@@ -11763,28 +11763,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>322.8560338980921</v>
+        <v>409.8794910225798</v>
       </c>
       <c r="AB20" t="n">
-        <v>441.7458689823373</v>
+        <v>560.8152022240324</v>
       </c>
       <c r="AC20" t="n">
-        <v>399.5862632408832</v>
+        <v>507.2917864328498</v>
       </c>
       <c r="AD20" t="n">
-        <v>322856.0338980921</v>
+        <v>409879.4910225798</v>
       </c>
       <c r="AE20" t="n">
-        <v>441745.8689823373</v>
+        <v>560815.2022240324</v>
       </c>
       <c r="AF20" t="n">
         <v>9.889783552600901e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>18</v>
+        <v>17.36328125</v>
       </c>
       <c r="AH20" t="n">
-        <v>399586.2632408832</v>
+        <v>507291.7864328498</v>
       </c>
     </row>
     <row r="21">
@@ -11869,28 +11869,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>323.5440910550963</v>
+        <v>410.5675481795841</v>
       </c>
       <c r="AB21" t="n">
-        <v>442.6872991394898</v>
+        <v>561.756632381185</v>
       </c>
       <c r="AC21" t="n">
-        <v>400.4378446251428</v>
+        <v>508.1433678171092</v>
       </c>
       <c r="AD21" t="n">
-        <v>323544.0910550962</v>
+        <v>410567.5481795841</v>
       </c>
       <c r="AE21" t="n">
-        <v>442687.2991394898</v>
+        <v>561756.632381185</v>
       </c>
       <c r="AF21" t="n">
         <v>9.888992201095037e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>18</v>
+        <v>17.36328125</v>
       </c>
       <c r="AH21" t="n">
-        <v>400437.8446251428</v>
+        <v>508143.3678171092</v>
       </c>
     </row>
   </sheetData>
@@ -12166,28 +12166,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>399.0126052464807</v>
+        <v>511.2442207044181</v>
       </c>
       <c r="AB2" t="n">
-        <v>545.9466496920081</v>
+        <v>699.5068972709862</v>
       </c>
       <c r="AC2" t="n">
-        <v>493.8422676863375</v>
+        <v>632.7469407595389</v>
       </c>
       <c r="AD2" t="n">
-        <v>399012.6052464807</v>
+        <v>511244.2207044181</v>
       </c>
       <c r="AE2" t="n">
-        <v>545946.6496920082</v>
+        <v>699506.8972709862</v>
       </c>
       <c r="AF2" t="n">
         <v>1.046050533378726e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.91666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>493842.2676863375</v>
+        <v>632746.9407595389</v>
       </c>
     </row>
     <row r="3">
@@ -12272,28 +12272,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>319.4174330813304</v>
+        <v>412.8707652521103</v>
       </c>
       <c r="AB3" t="n">
-        <v>437.0410236444824</v>
+        <v>564.9079955905813</v>
       </c>
       <c r="AC3" t="n">
-        <v>395.3304417387814</v>
+        <v>510.9939693447669</v>
       </c>
       <c r="AD3" t="n">
-        <v>319417.4330813304</v>
+        <v>412870.7652521104</v>
       </c>
       <c r="AE3" t="n">
-        <v>437041.0236444824</v>
+        <v>564907.9955905813</v>
       </c>
       <c r="AF3" t="n">
         <v>1.246232742733558e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.23177083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>395330.4417387814</v>
+        <v>510993.9693447669</v>
       </c>
     </row>
     <row r="4">
@@ -12378,28 +12378,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>295.4483870158205</v>
+        <v>379.5804028656547</v>
       </c>
       <c r="AB4" t="n">
-        <v>404.2455173779697</v>
+        <v>519.3586531062977</v>
       </c>
       <c r="AC4" t="n">
-        <v>365.6648925615625</v>
+        <v>469.7917921782795</v>
       </c>
       <c r="AD4" t="n">
-        <v>295448.3870158205</v>
+        <v>379580.4028656547</v>
       </c>
       <c r="AE4" t="n">
-        <v>404245.5173779697</v>
+        <v>519358.6531062976</v>
       </c>
       <c r="AF4" t="n">
         <v>1.31504652777755e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.22916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>365664.8925615625</v>
+        <v>469791.7921782795</v>
       </c>
     </row>
     <row r="5">
@@ -12484,28 +12484,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>278.1034549647834</v>
+        <v>362.302790622322</v>
       </c>
       <c r="AB5" t="n">
-        <v>380.5134161413441</v>
+        <v>495.7186618005135</v>
       </c>
       <c r="AC5" t="n">
-        <v>344.1977497587472</v>
+        <v>448.4079684637833</v>
       </c>
       <c r="AD5" t="n">
-        <v>278103.4549647834</v>
+        <v>362302.7906223221</v>
       </c>
       <c r="AE5" t="n">
-        <v>380513.4161413441</v>
+        <v>495718.6618005135</v>
       </c>
       <c r="AF5" t="n">
         <v>1.349987288615831e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.75390625</v>
       </c>
       <c r="AH5" t="n">
-        <v>344197.7497587472</v>
+        <v>448407.9684637833</v>
       </c>
     </row>
     <row r="6">
@@ -12590,28 +12590,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>272.4288540595742</v>
+        <v>356.5267044906276</v>
       </c>
       <c r="AB6" t="n">
-        <v>372.7491768371133</v>
+        <v>487.8155659321934</v>
       </c>
       <c r="AC6" t="n">
-        <v>337.1745185565339</v>
+        <v>441.259132973071</v>
       </c>
       <c r="AD6" t="n">
-        <v>272428.8540595742</v>
+        <v>356526.7044906276</v>
       </c>
       <c r="AE6" t="n">
-        <v>372749.1768371133</v>
+        <v>487815.5659321934</v>
       </c>
       <c r="AF6" t="n">
         <v>1.3711579287444e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.48046875</v>
       </c>
       <c r="AH6" t="n">
-        <v>337174.5185565339</v>
+        <v>441259.132973071</v>
       </c>
     </row>
     <row r="7">
@@ -12696,28 +12696,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>271.5658098185482</v>
+        <v>355.6636602496017</v>
       </c>
       <c r="AB7" t="n">
-        <v>371.568321631717</v>
+        <v>486.6347107267971</v>
       </c>
       <c r="AC7" t="n">
-        <v>336.1063625145999</v>
+        <v>440.190976931137</v>
       </c>
       <c r="AD7" t="n">
-        <v>271565.8098185483</v>
+        <v>355663.6602496017</v>
       </c>
       <c r="AE7" t="n">
-        <v>371568.321631717</v>
+        <v>486634.7107267971</v>
       </c>
       <c r="AF7" t="n">
         <v>1.373256583504971e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.45442708333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>336106.3625145999</v>
+        <v>440190.976931137</v>
       </c>
     </row>
   </sheetData>
@@ -12993,28 +12993,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>510.0223866779585</v>
+        <v>633.295798348184</v>
       </c>
       <c r="AB2" t="n">
-        <v>697.8351300524713</v>
+        <v>866.503250338771</v>
       </c>
       <c r="AC2" t="n">
-        <v>631.234724658019</v>
+        <v>783.8053962713878</v>
       </c>
       <c r="AD2" t="n">
-        <v>510022.3866779585</v>
+        <v>633295.798348184</v>
       </c>
       <c r="AE2" t="n">
-        <v>697835.1300524713</v>
+        <v>866503.2503387709</v>
       </c>
       <c r="AF2" t="n">
         <v>8.065259278223601e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.73567708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>631234.724658019</v>
+        <v>783805.3962713878</v>
       </c>
     </row>
     <row r="3">
@@ -13099,28 +13099,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>372.7686257465844</v>
+        <v>467.5270072236689</v>
       </c>
       <c r="AB3" t="n">
-        <v>510.0384791375882</v>
+        <v>639.691077119285</v>
       </c>
       <c r="AC3" t="n">
-        <v>461.3611225321975</v>
+        <v>578.6398585310851</v>
       </c>
       <c r="AD3" t="n">
-        <v>372768.6257465844</v>
+        <v>467527.0072236689</v>
       </c>
       <c r="AE3" t="n">
-        <v>510038.4791375882</v>
+        <v>639691.077119285</v>
       </c>
       <c r="AF3" t="n">
         <v>1.018591709437166e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.37760416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>461361.1225321975</v>
+        <v>578639.8585310851</v>
       </c>
     </row>
     <row r="4">
@@ -13205,28 +13205,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>331.9370536114403</v>
+        <v>426.7285894774484</v>
       </c>
       <c r="AB4" t="n">
-        <v>454.1709207804552</v>
+        <v>583.8688820597456</v>
       </c>
       <c r="AC4" t="n">
-        <v>410.8254855340587</v>
+        <v>528.1452554210854</v>
       </c>
       <c r="AD4" t="n">
-        <v>331937.0536114403</v>
+        <v>426728.5894774484</v>
       </c>
       <c r="AE4" t="n">
-        <v>454170.9207804552</v>
+        <v>583868.8820597456</v>
       </c>
       <c r="AF4" t="n">
         <v>1.093999253192844e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.97786458333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>410825.4855340587</v>
+        <v>528145.2554210854</v>
       </c>
     </row>
     <row r="5">
@@ -13311,28 +13311,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>321.1809623516733</v>
+        <v>406.4567737002789</v>
       </c>
       <c r="AB5" t="n">
-        <v>439.453962193586</v>
+        <v>556.1320893840289</v>
       </c>
       <c r="AC5" t="n">
-        <v>397.5130928193391</v>
+        <v>503.055623309506</v>
       </c>
       <c r="AD5" t="n">
-        <v>321180.9623516733</v>
+        <v>406456.7737002788</v>
       </c>
       <c r="AE5" t="n">
-        <v>439453.962193586</v>
+        <v>556132.0893840288</v>
       </c>
       <c r="AF5" t="n">
         <v>1.133408861684184e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.31380208333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>397513.0928193391</v>
+        <v>503055.623309506</v>
       </c>
     </row>
     <row r="6">
@@ -13417,28 +13417,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>305.3190014436878</v>
+        <v>400.076371890915</v>
       </c>
       <c r="AB6" t="n">
-        <v>417.7509274989529</v>
+        <v>547.4021421449957</v>
       </c>
       <c r="AC6" t="n">
-        <v>377.8813652955612</v>
+        <v>495.1588499824081</v>
       </c>
       <c r="AD6" t="n">
-        <v>305319.0014436878</v>
+        <v>400076.371890915</v>
       </c>
       <c r="AE6" t="n">
-        <v>417750.927498953</v>
+        <v>547402.1421449956</v>
       </c>
       <c r="AF6" t="n">
         <v>1.155249947296294e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.96875</v>
       </c>
       <c r="AH6" t="n">
-        <v>377881.3652955613</v>
+        <v>495158.8499824081</v>
       </c>
     </row>
     <row r="7">
@@ -13523,28 +13523,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>300.028496920806</v>
+        <v>385.3716280771161</v>
       </c>
       <c r="AB7" t="n">
-        <v>410.5122258101594</v>
+        <v>527.2824629314437</v>
       </c>
       <c r="AC7" t="n">
-        <v>371.3335151363644</v>
+        <v>476.9593647148505</v>
       </c>
       <c r="AD7" t="n">
-        <v>300028.4969208061</v>
+        <v>385371.6280771161</v>
       </c>
       <c r="AE7" t="n">
-        <v>410512.2258101593</v>
+        <v>527282.4629314437</v>
       </c>
       <c r="AF7" t="n">
         <v>1.172021350262673e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.70833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>371333.5151363644</v>
+        <v>476959.3647148505</v>
       </c>
     </row>
     <row r="8">
@@ -13629,28 +13629,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>295.6164765754295</v>
+        <v>380.9596077317395</v>
       </c>
       <c r="AB8" t="n">
-        <v>404.4755049290148</v>
+        <v>521.2457420502992</v>
       </c>
       <c r="AC8" t="n">
-        <v>365.8729304235254</v>
+        <v>471.4987800020115</v>
       </c>
       <c r="AD8" t="n">
-        <v>295616.4765754296</v>
+        <v>380959.6077317395</v>
       </c>
       <c r="AE8" t="n">
-        <v>404475.5049290148</v>
+        <v>521245.7420502992</v>
       </c>
       <c r="AF8" t="n">
         <v>1.1845839600892e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.52604166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>365872.9304235254</v>
+        <v>471498.7800020115</v>
       </c>
     </row>
     <row r="9">
@@ -13735,28 +13735,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>292.4325972198291</v>
+        <v>377.6742431496538</v>
       </c>
       <c r="AB9" t="n">
-        <v>400.1191807318385</v>
+        <v>516.7505612890335</v>
       </c>
       <c r="AC9" t="n">
-        <v>361.9323676935882</v>
+        <v>467.4326129835753</v>
       </c>
       <c r="AD9" t="n">
-        <v>292432.5972198291</v>
+        <v>377674.2431496538</v>
       </c>
       <c r="AE9" t="n">
-        <v>400119.1807318385</v>
+        <v>516750.5612890335</v>
       </c>
       <c r="AF9" t="n">
         <v>1.191821808897885e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.41536458333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>361932.3676935882</v>
+        <v>467432.6129835753</v>
       </c>
     </row>
     <row r="10">
@@ -13841,28 +13841,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>289.9795882815196</v>
+        <v>375.2212342113444</v>
       </c>
       <c r="AB10" t="n">
-        <v>396.7628656833268</v>
+        <v>513.3942462405217</v>
       </c>
       <c r="AC10" t="n">
-        <v>358.8963746426887</v>
+        <v>464.3966199326757</v>
       </c>
       <c r="AD10" t="n">
-        <v>289979.5882815196</v>
+        <v>375221.2342113444</v>
       </c>
       <c r="AE10" t="n">
-        <v>396762.8656833268</v>
+        <v>513394.2462405218</v>
       </c>
       <c r="AF10" t="n">
         <v>1.196668297968017e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.34375</v>
       </c>
       <c r="AH10" t="n">
-        <v>358896.3746426887</v>
+        <v>464396.6199326757</v>
       </c>
     </row>
     <row r="11">
@@ -13947,28 +13947,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>290.488692866487</v>
+        <v>375.7303387963117</v>
       </c>
       <c r="AB11" t="n">
-        <v>397.4594450365884</v>
+        <v>514.0908255937834</v>
       </c>
       <c r="AC11" t="n">
-        <v>359.5264734401302</v>
+        <v>465.0267187301173</v>
       </c>
       <c r="AD11" t="n">
-        <v>290488.692866487</v>
+        <v>375730.3387963118</v>
       </c>
       <c r="AE11" t="n">
-        <v>397459.4450365884</v>
+        <v>514090.8255937834</v>
       </c>
       <c r="AF11" t="n">
         <v>1.196540758781961e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.35026041666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>359526.4734401302</v>
+        <v>465026.7187301173</v>
       </c>
     </row>
   </sheetData>
@@ -14244,28 +14244,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>338.5103656192347</v>
+        <v>430.989643142083</v>
       </c>
       <c r="AB2" t="n">
-        <v>463.1648162635787</v>
+        <v>589.699043668119</v>
       </c>
       <c r="AC2" t="n">
-        <v>418.9610162552844</v>
+        <v>533.4189945882389</v>
       </c>
       <c r="AD2" t="n">
-        <v>338510.3656192347</v>
+        <v>430989.643142083</v>
       </c>
       <c r="AE2" t="n">
-        <v>463164.8162635787</v>
+        <v>589699.043668119</v>
       </c>
       <c r="AF2" t="n">
         <v>1.301594789735048e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.09375</v>
       </c>
       <c r="AH2" t="n">
-        <v>418961.0162552844</v>
+        <v>533418.9945882389</v>
       </c>
     </row>
     <row r="3">
@@ -14350,28 +14350,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>278.1213077875826</v>
+        <v>361.3151767004727</v>
       </c>
       <c r="AB3" t="n">
-        <v>380.5378431611089</v>
+        <v>494.367364862188</v>
       </c>
       <c r="AC3" t="n">
-        <v>344.2198454980292</v>
+        <v>447.1856374086944</v>
       </c>
       <c r="AD3" t="n">
-        <v>278121.3077875826</v>
+        <v>361315.1767004727</v>
       </c>
       <c r="AE3" t="n">
-        <v>380537.8431611089</v>
+        <v>494367.364862188</v>
       </c>
       <c r="AF3" t="n">
         <v>1.48980206485533e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.43098958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>344219.8454980292</v>
+        <v>447185.6374086944</v>
       </c>
     </row>
     <row r="4">
@@ -14456,28 +14456,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>257.8712369441999</v>
+        <v>341.1324256647977</v>
       </c>
       <c r="AB4" t="n">
-        <v>352.8308028629512</v>
+        <v>466.7524344950431</v>
       </c>
       <c r="AC4" t="n">
-        <v>319.1571262389585</v>
+        <v>422.2062372379916</v>
       </c>
       <c r="AD4" t="n">
-        <v>257871.2369441999</v>
+        <v>341132.4256647977</v>
       </c>
       <c r="AE4" t="n">
-        <v>352830.8028629512</v>
+        <v>466752.4344950431</v>
       </c>
       <c r="AF4" t="n">
         <v>1.55086505709691e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.70182291666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>319157.1262389585</v>
+        <v>422206.2372379915</v>
       </c>
     </row>
     <row r="5">
@@ -14562,28 +14562,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>256.9194569977134</v>
+        <v>340.1806457183113</v>
       </c>
       <c r="AB5" t="n">
-        <v>351.5285355506013</v>
+        <v>465.4501671826925</v>
       </c>
       <c r="AC5" t="n">
-        <v>317.9791454911552</v>
+        <v>421.0282564901881</v>
       </c>
       <c r="AD5" t="n">
-        <v>256919.4569977135</v>
+        <v>340180.6457183113</v>
       </c>
       <c r="AE5" t="n">
-        <v>351528.5355506013</v>
+        <v>465450.1671826925</v>
       </c>
       <c r="AF5" t="n">
         <v>1.559130489748394e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.61067708333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>317979.1454911552</v>
+        <v>421028.2564901881</v>
       </c>
     </row>
   </sheetData>
@@ -14859,28 +14859,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>856.0711180236242</v>
+        <v>1030.763503764945</v>
       </c>
       <c r="AB2" t="n">
-        <v>1171.314270872176</v>
+        <v>1410.336099927584</v>
       </c>
       <c r="AC2" t="n">
-        <v>1059.525680810039</v>
+        <v>1275.735601969643</v>
       </c>
       <c r="AD2" t="n">
-        <v>856071.1180236242</v>
+        <v>1030763.503764945</v>
       </c>
       <c r="AE2" t="n">
-        <v>1171314.270872176</v>
+        <v>1410336.099927584</v>
       </c>
       <c r="AF2" t="n">
         <v>4.929430014093018e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.99739583333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1059525.680810039</v>
+        <v>1275735.601969643</v>
       </c>
     </row>
     <row r="3">
@@ -14965,28 +14965,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>506.106591609831</v>
+        <v>622.5122507692671</v>
       </c>
       <c r="AB3" t="n">
-        <v>692.4773664875731</v>
+        <v>851.7487248047532</v>
       </c>
       <c r="AC3" t="n">
-        <v>626.3882985280864</v>
+        <v>770.4590219462302</v>
       </c>
       <c r="AD3" t="n">
-        <v>506106.591609831</v>
+        <v>622512.2507692671</v>
       </c>
       <c r="AE3" t="n">
-        <v>692477.3664875731</v>
+        <v>851748.7248047532</v>
       </c>
       <c r="AF3" t="n">
         <v>7.226312730320278e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.19010416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>626388.2985280864</v>
+        <v>770459.0219462302</v>
       </c>
     </row>
     <row r="4">
@@ -15071,28 +15071,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>430.6108749966426</v>
+        <v>537.3749252649563</v>
       </c>
       <c r="AB4" t="n">
-        <v>589.1807963814563</v>
+        <v>735.2600800560388</v>
       </c>
       <c r="AC4" t="n">
-        <v>532.9502080952507</v>
+        <v>665.0878899594934</v>
       </c>
       <c r="AD4" t="n">
-        <v>430610.8749966426</v>
+        <v>537374.9252649563</v>
       </c>
       <c r="AE4" t="n">
-        <v>589180.7963814563</v>
+        <v>735260.0800560388</v>
       </c>
       <c r="AF4" t="n">
         <v>8.070622414196261e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.76822916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>532950.2080952507</v>
+        <v>665087.8899594934</v>
       </c>
     </row>
     <row r="5">
@@ -15177,28 +15177,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>401.6538701360466</v>
+        <v>498.7431571243143</v>
       </c>
       <c r="AB5" t="n">
-        <v>549.5605448382954</v>
+        <v>682.4023905726865</v>
       </c>
       <c r="AC5" t="n">
-        <v>497.1112577519966</v>
+        <v>617.2748641741989</v>
       </c>
       <c r="AD5" t="n">
-        <v>401653.8701360466</v>
+        <v>498743.1571243143</v>
       </c>
       <c r="AE5" t="n">
-        <v>549560.5448382954</v>
+        <v>682402.3905726864</v>
       </c>
       <c r="AF5" t="n">
         <v>8.50358853867169e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.70703125</v>
       </c>
       <c r="AH5" t="n">
-        <v>497111.2577519966</v>
+        <v>617274.8641741989</v>
       </c>
     </row>
     <row r="6">
@@ -15283,28 +15283,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>390.1495844580897</v>
+        <v>477.496788358607</v>
       </c>
       <c r="AB6" t="n">
-        <v>533.8198736404504</v>
+        <v>653.3321715038088</v>
       </c>
       <c r="AC6" t="n">
-        <v>482.8728541211034</v>
+        <v>590.9790660129463</v>
       </c>
       <c r="AD6" t="n">
-        <v>390149.5844580897</v>
+        <v>477496.788358607</v>
       </c>
       <c r="AE6" t="n">
-        <v>533819.8736404504</v>
+        <v>653332.1715038088</v>
       </c>
       <c r="AF6" t="n">
         <v>8.779533654865303e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.08854166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>482872.8541211034</v>
+        <v>590979.0660129463</v>
       </c>
     </row>
     <row r="7">
@@ -15389,28 +15389,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>372.9674094840131</v>
+        <v>470.0225310534999</v>
       </c>
       <c r="AB7" t="n">
-        <v>510.3104638168578</v>
+        <v>643.1055629180011</v>
       </c>
       <c r="AC7" t="n">
-        <v>461.6071493754104</v>
+        <v>581.7284705974326</v>
       </c>
       <c r="AD7" t="n">
-        <v>372967.4094840131</v>
+        <v>470022.5310534999</v>
       </c>
       <c r="AE7" t="n">
-        <v>510310.4638168578</v>
+        <v>643105.5629180011</v>
       </c>
       <c r="AF7" t="n">
         <v>8.961523577578816e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.69791666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>461607.1493754104</v>
+        <v>581728.4705974327</v>
       </c>
     </row>
     <row r="8">
@@ -15495,28 +15495,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>367.7082014554452</v>
+        <v>455.0212399371816</v>
       </c>
       <c r="AB8" t="n">
-        <v>503.1145833722881</v>
+        <v>622.5801346023986</v>
       </c>
       <c r="AC8" t="n">
-        <v>455.0980336609888</v>
+        <v>563.1619603526518</v>
       </c>
       <c r="AD8" t="n">
-        <v>367708.2014554452</v>
+        <v>455021.2399371816</v>
       </c>
       <c r="AE8" t="n">
-        <v>503114.583372288</v>
+        <v>622580.1346023986</v>
       </c>
       <c r="AF8" t="n">
         <v>9.092031202495014e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.43098958333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>455098.0336609888</v>
+        <v>563161.9603526518</v>
       </c>
     </row>
     <row r="9">
@@ -15601,28 +15601,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>362.7295860587441</v>
+        <v>450.0426245404806</v>
       </c>
       <c r="AB9" t="n">
-        <v>496.3026221455119</v>
+        <v>615.7681733756224</v>
       </c>
       <c r="AC9" t="n">
-        <v>448.9361964530485</v>
+        <v>557.0001231447116</v>
       </c>
       <c r="AD9" t="n">
-        <v>362729.5860587441</v>
+        <v>450042.6245404806</v>
       </c>
       <c r="AE9" t="n">
-        <v>496302.6221455119</v>
+        <v>615768.1733756224</v>
       </c>
       <c r="AF9" t="n">
         <v>9.214816482741613e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.18359375</v>
       </c>
       <c r="AH9" t="n">
-        <v>448936.1964530485</v>
+        <v>557000.1231447116</v>
       </c>
     </row>
     <row r="10">
@@ -15707,28 +15707,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>359.5946396019078</v>
+        <v>446.9076780836442</v>
       </c>
       <c r="AB10" t="n">
-        <v>492.0132500991917</v>
+        <v>611.4788013293021</v>
       </c>
       <c r="AC10" t="n">
-        <v>445.0561960546576</v>
+        <v>553.1201227463207</v>
       </c>
       <c r="AD10" t="n">
-        <v>359594.6396019078</v>
+        <v>446907.6780836442</v>
       </c>
       <c r="AE10" t="n">
-        <v>492013.2500991917</v>
+        <v>611478.8013293021</v>
       </c>
       <c r="AF10" t="n">
         <v>9.287149111146842e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.046875</v>
       </c>
       <c r="AH10" t="n">
-        <v>445056.1960546576</v>
+        <v>553120.1227463207</v>
       </c>
     </row>
     <row r="11">
@@ -15813,28 +15813,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>346.4283179231266</v>
+        <v>443.4492740738327</v>
       </c>
       <c r="AB11" t="n">
-        <v>473.9985079211657</v>
+        <v>606.7468603890612</v>
       </c>
       <c r="AC11" t="n">
-        <v>428.760755586253</v>
+        <v>548.8397916080954</v>
       </c>
       <c r="AD11" t="n">
-        <v>346428.3179231266</v>
+        <v>443449.2740738327</v>
       </c>
       <c r="AE11" t="n">
-        <v>473998.5079211657</v>
+        <v>606746.8603890613</v>
       </c>
       <c r="AF11" t="n">
         <v>9.358709505085111e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.90364583333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>428760.755586253</v>
+        <v>548839.7916080954</v>
       </c>
     </row>
     <row r="12">
@@ -15919,28 +15919,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>344.0728790572242</v>
+        <v>431.4532373466651</v>
       </c>
       <c r="AB12" t="n">
-        <v>470.7756925502092</v>
+        <v>590.3333537111613</v>
       </c>
       <c r="AC12" t="n">
-        <v>425.8455211910508</v>
+        <v>533.9927669710328</v>
       </c>
       <c r="AD12" t="n">
-        <v>344072.8790572242</v>
+        <v>431453.2373466651</v>
       </c>
       <c r="AE12" t="n">
-        <v>470775.6925502092</v>
+        <v>590333.3537111613</v>
       </c>
       <c r="AF12" t="n">
         <v>9.405300984591682e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.81901041666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>425845.5211910508</v>
+        <v>533992.7669710328</v>
       </c>
     </row>
     <row r="13">
@@ -16025,28 +16025,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>341.4827199225421</v>
+        <v>428.863078211983</v>
       </c>
       <c r="AB13" t="n">
-        <v>467.2317225523808</v>
+        <v>586.7893837133329</v>
       </c>
       <c r="AC13" t="n">
-        <v>422.639782715822</v>
+        <v>530.7870284958042</v>
       </c>
       <c r="AD13" t="n">
-        <v>341482.719922542</v>
+        <v>428863.078211983</v>
       </c>
       <c r="AE13" t="n">
-        <v>467231.7225523808</v>
+        <v>586789.3837133329</v>
       </c>
       <c r="AF13" t="n">
         <v>9.452664698565214e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.72786458333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>422639.782715822</v>
+        <v>530787.0284958042</v>
       </c>
     </row>
     <row r="14">
@@ -16131,28 +16131,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>339.8171827952751</v>
+        <v>427.197541084716</v>
       </c>
       <c r="AB14" t="n">
-        <v>464.9528611765419</v>
+        <v>584.510522337494</v>
       </c>
       <c r="AC14" t="n">
-        <v>420.5784126712912</v>
+        <v>528.7256584512733</v>
       </c>
       <c r="AD14" t="n">
-        <v>339817.1827952751</v>
+        <v>427197.541084716</v>
       </c>
       <c r="AE14" t="n">
-        <v>464952.8611765419</v>
+        <v>584510.522337494</v>
       </c>
       <c r="AF14" t="n">
         <v>9.481752196820696e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.67578125</v>
       </c>
       <c r="AH14" t="n">
-        <v>420578.4126712912</v>
+        <v>528725.6584512732</v>
       </c>
     </row>
     <row r="15">
@@ -16237,28 +16237,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>337.9470567545474</v>
+        <v>425.3274150439883</v>
       </c>
       <c r="AB15" t="n">
-        <v>462.3940722234802</v>
+        <v>581.9517333844323</v>
       </c>
       <c r="AC15" t="n">
-        <v>418.2638309446268</v>
+        <v>526.4110767246088</v>
       </c>
       <c r="AD15" t="n">
-        <v>337947.0567545473</v>
+        <v>425327.4150439883</v>
       </c>
       <c r="AE15" t="n">
-        <v>462394.0722234802</v>
+        <v>581951.7333844323</v>
       </c>
       <c r="AF15" t="n">
         <v>9.505691465296448e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>17.63020833333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>418263.8309446268</v>
+        <v>526411.0767246089</v>
       </c>
     </row>
     <row r="16">
@@ -16343,28 +16343,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>335.8822753248865</v>
+        <v>423.2626336143274</v>
       </c>
       <c r="AB16" t="n">
-        <v>459.5689471796903</v>
+        <v>579.1266083406424</v>
       </c>
       <c r="AC16" t="n">
-        <v>415.7083318699284</v>
+        <v>523.8555776499105</v>
       </c>
       <c r="AD16" t="n">
-        <v>335882.2753248864</v>
+        <v>423262.6336143274</v>
       </c>
       <c r="AE16" t="n">
-        <v>459568.9471796904</v>
+        <v>579126.6083406424</v>
       </c>
       <c r="AF16" t="n">
         <v>9.53117520270612e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>18</v>
+        <v>17.58463541666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>415708.3318699284</v>
+        <v>523855.5776499105</v>
       </c>
     </row>
     <row r="17">
@@ -16449,28 +16449,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>334.1162032874393</v>
+        <v>421.4965615768801</v>
       </c>
       <c r="AB17" t="n">
-        <v>457.1525295044557</v>
+        <v>576.7101906654078</v>
       </c>
       <c r="AC17" t="n">
-        <v>413.5225337061545</v>
+        <v>521.6697794861367</v>
       </c>
       <c r="AD17" t="n">
-        <v>334116.2032874393</v>
+        <v>421496.5615768802</v>
       </c>
       <c r="AE17" t="n">
-        <v>457152.5295044557</v>
+        <v>576710.1906654078</v>
       </c>
       <c r="AF17" t="n">
         <v>9.553312590758965e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>17.5390625</v>
       </c>
       <c r="AH17" t="n">
-        <v>413522.5337061546</v>
+        <v>521669.7794861367</v>
       </c>
     </row>
     <row r="18">
@@ -16555,28 +16555,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>332.829572613629</v>
+        <v>420.1084456765847</v>
       </c>
       <c r="AB18" t="n">
-        <v>455.3921046544093</v>
+        <v>574.8109092512719</v>
       </c>
       <c r="AC18" t="n">
-        <v>411.9301213330248</v>
+        <v>519.9517628245079</v>
       </c>
       <c r="AD18" t="n">
-        <v>332829.572613629</v>
+        <v>420108.4456765847</v>
       </c>
       <c r="AE18" t="n">
-        <v>455392.1046544092</v>
+        <v>574810.909251272</v>
       </c>
       <c r="AF18" t="n">
         <v>9.5757073903008e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>411930.1213330248</v>
+        <v>519951.7628245079</v>
       </c>
     </row>
     <row r="19">
@@ -16661,28 +16661,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>330.8423856168596</v>
+        <v>418.1212586798154</v>
       </c>
       <c r="AB19" t="n">
-        <v>452.6731477369265</v>
+        <v>572.0919523337892</v>
       </c>
       <c r="AC19" t="n">
-        <v>409.4706578476665</v>
+        <v>517.4922993391497</v>
       </c>
       <c r="AD19" t="n">
-        <v>330842.3856168597</v>
+        <v>418121.2586798153</v>
       </c>
       <c r="AE19" t="n">
-        <v>452673.1477369264</v>
+        <v>572091.9523337892</v>
       </c>
       <c r="AF19" t="n">
         <v>9.605309711534255e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>18</v>
+        <v>17.44791666666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>409470.6578476665</v>
+        <v>517492.2993391496</v>
       </c>
     </row>
     <row r="20">
@@ -16767,28 +16767,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>329.0524573987311</v>
+        <v>416.3313304616868</v>
       </c>
       <c r="AB20" t="n">
-        <v>450.2240889828232</v>
+        <v>569.6428935796858</v>
       </c>
       <c r="AC20" t="n">
-        <v>407.2553338237793</v>
+        <v>515.2769753152625</v>
       </c>
       <c r="AD20" t="n">
-        <v>329052.4573987311</v>
+        <v>416331.3304616868</v>
       </c>
       <c r="AE20" t="n">
-        <v>450224.0889828232</v>
+        <v>569642.8935796858</v>
       </c>
       <c r="AF20" t="n">
         <v>9.631823094899873e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>18</v>
+        <v>17.40234375</v>
       </c>
       <c r="AH20" t="n">
-        <v>407255.3338237793</v>
+        <v>515276.9753152624</v>
       </c>
     </row>
     <row r="21">
@@ -16873,28 +16873,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>328.6419000976784</v>
+        <v>415.9207731606342</v>
       </c>
       <c r="AB21" t="n">
-        <v>449.6623463710131</v>
+        <v>569.0811509678758</v>
       </c>
       <c r="AC21" t="n">
-        <v>406.7472031384297</v>
+        <v>514.7688446299128</v>
       </c>
       <c r="AD21" t="n">
-        <v>328641.9000976784</v>
+        <v>415920.7731606342</v>
       </c>
       <c r="AE21" t="n">
-        <v>449662.3463710131</v>
+        <v>569081.1509678758</v>
       </c>
       <c r="AF21" t="n">
         <v>9.624872984697235e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>18</v>
+        <v>17.40885416666667</v>
       </c>
       <c r="AH21" t="n">
-        <v>406747.2031384297</v>
+        <v>514768.8446299128</v>
       </c>
     </row>
     <row r="22">
@@ -16979,28 +16979,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>328.1855092496108</v>
+        <v>415.4643823125665</v>
       </c>
       <c r="AB22" t="n">
-        <v>449.0378922781438</v>
+        <v>568.4566968750065</v>
       </c>
       <c r="AC22" t="n">
-        <v>406.182346067757</v>
+        <v>514.2039875592401</v>
       </c>
       <c r="AD22" t="n">
-        <v>328185.5092496108</v>
+        <v>415464.3823125665</v>
       </c>
       <c r="AE22" t="n">
-        <v>449037.8922781438</v>
+        <v>568456.6968750065</v>
       </c>
       <c r="AF22" t="n">
         <v>9.625902630653183e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>18</v>
+        <v>17.40885416666667</v>
       </c>
       <c r="AH22" t="n">
-        <v>406182.346067757</v>
+        <v>514203.9875592401</v>
       </c>
     </row>
     <row r="23">
@@ -17085,28 +17085,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>328.8165504220975</v>
+        <v>416.0954234850531</v>
       </c>
       <c r="AB23" t="n">
-        <v>449.9013106499117</v>
+        <v>569.3201152467744</v>
       </c>
       <c r="AC23" t="n">
-        <v>406.9633610019387</v>
+        <v>514.9850024934218</v>
       </c>
       <c r="AD23" t="n">
-        <v>328816.5504220974</v>
+        <v>416095.4234850531</v>
       </c>
       <c r="AE23" t="n">
-        <v>449901.3106499118</v>
+        <v>569320.1152467744</v>
       </c>
       <c r="AF23" t="n">
         <v>9.624872984697235e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>18</v>
+        <v>17.40885416666667</v>
       </c>
       <c r="AH23" t="n">
-        <v>406963.3610019387</v>
+        <v>514985.0024934218</v>
       </c>
     </row>
   </sheetData>
@@ -17382,28 +17382,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>303.4434226144289</v>
+        <v>395.2712864380095</v>
       </c>
       <c r="AB2" t="n">
-        <v>415.1846778000628</v>
+        <v>540.8276122429212</v>
       </c>
       <c r="AC2" t="n">
-        <v>375.5600348661793</v>
+        <v>489.211783986777</v>
       </c>
       <c r="AD2" t="n">
-        <v>303443.4226144289</v>
+        <v>395271.2864380095</v>
       </c>
       <c r="AE2" t="n">
-        <v>415184.6778000629</v>
+        <v>540827.6122429211</v>
       </c>
       <c r="AF2" t="n">
         <v>1.48989106031106e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.16276041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>375560.0348661792</v>
+        <v>489211.7839867771</v>
       </c>
     </row>
     <row r="3">
@@ -17488,28 +17488,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>260.1160028957875</v>
+        <v>342.7543483562396</v>
       </c>
       <c r="AB3" t="n">
-        <v>355.9021906701645</v>
+        <v>468.9716206756528</v>
       </c>
       <c r="AC3" t="n">
-        <v>321.9353851044651</v>
+        <v>424.2136274041713</v>
       </c>
       <c r="AD3" t="n">
-        <v>260116.0028957875</v>
+        <v>342754.3483562396</v>
       </c>
       <c r="AE3" t="n">
-        <v>355902.1906701645</v>
+        <v>468971.6206756529</v>
       </c>
       <c r="AF3" t="n">
         <v>1.667077770075824e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.02083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>321935.3851044651</v>
+        <v>424213.6274041713</v>
       </c>
     </row>
     <row r="4">
@@ -17594,28 +17594,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>248.5085573158505</v>
+        <v>331.21422258401</v>
       </c>
       <c r="AB4" t="n">
-        <v>340.0203715431763</v>
+        <v>453.1819114796709</v>
       </c>
       <c r="AC4" t="n">
-        <v>307.5693045047857</v>
+        <v>409.9308658928578</v>
       </c>
       <c r="AD4" t="n">
-        <v>248508.5573158505</v>
+        <v>331214.22258401</v>
       </c>
       <c r="AE4" t="n">
-        <v>340020.3715431764</v>
+        <v>453181.9114796709</v>
       </c>
       <c r="AF4" t="n">
         <v>1.686088427477669e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.81901041666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>307569.3045047857</v>
+        <v>409930.8658928578</v>
       </c>
     </row>
   </sheetData>
@@ -17891,28 +17891,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>637.4930316886222</v>
+        <v>781.2855230237371</v>
       </c>
       <c r="AB2" t="n">
-        <v>872.2460901640246</v>
+        <v>1068.989320485732</v>
       </c>
       <c r="AC2" t="n">
-        <v>789.0001475238457</v>
+        <v>966.9664800745077</v>
       </c>
       <c r="AD2" t="n">
-        <v>637493.0316886222</v>
+        <v>781285.5230237371</v>
       </c>
       <c r="AE2" t="n">
-        <v>872246.0901640246</v>
+        <v>1068989.320485732</v>
       </c>
       <c r="AF2" t="n">
         <v>6.452784399427447e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.93880208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>789000.1475238458</v>
+        <v>966966.4800745076</v>
       </c>
     </row>
     <row r="3">
@@ -17997,28 +17997,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>425.9823863301286</v>
+        <v>531.4552679496522</v>
       </c>
       <c r="AB3" t="n">
-        <v>582.8478939934234</v>
+        <v>727.1605437603906</v>
       </c>
       <c r="AC3" t="n">
-        <v>527.2217090228472</v>
+        <v>657.7613620401311</v>
       </c>
       <c r="AD3" t="n">
-        <v>425982.3863301286</v>
+        <v>531455.2679496523</v>
       </c>
       <c r="AE3" t="n">
-        <v>582847.8939934234</v>
+        <v>727160.5437603906</v>
       </c>
       <c r="AF3" t="n">
         <v>8.663372894177296e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.55598958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>527221.7090228472</v>
+        <v>657761.3620401311</v>
       </c>
     </row>
     <row r="4">
@@ -18103,28 +18103,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>375.718131732461</v>
+        <v>471.6025695683915</v>
       </c>
       <c r="AB4" t="n">
-        <v>514.074123350485</v>
+        <v>645.2674413204554</v>
       </c>
       <c r="AC4" t="n">
-        <v>465.0116105254777</v>
+        <v>583.6840223593722</v>
       </c>
       <c r="AD4" t="n">
-        <v>375718.131732461</v>
+        <v>471602.5695683915</v>
       </c>
       <c r="AE4" t="n">
-        <v>514074.123350485</v>
+        <v>645267.4413204554</v>
       </c>
       <c r="AF4" t="n">
         <v>9.462477545322107e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.73307291666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>465011.6105254777</v>
+        <v>583684.0223593722</v>
       </c>
     </row>
     <row r="5">
@@ -18209,28 +18209,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>351.6431588972751</v>
+        <v>447.4934313144249</v>
       </c>
       <c r="AB5" t="n">
-        <v>481.1336834045425</v>
+        <v>612.280254741265</v>
       </c>
       <c r="AC5" t="n">
-        <v>435.2149599357779</v>
+        <v>553.8450865694924</v>
       </c>
       <c r="AD5" t="n">
-        <v>351643.1588972751</v>
+        <v>447493.4313144248</v>
       </c>
       <c r="AE5" t="n">
-        <v>481133.6834045424</v>
+        <v>612280.254741265</v>
       </c>
       <c r="AF5" t="n">
         <v>9.89128639437505e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.88020833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>435214.9599357779</v>
+        <v>553845.0865694925</v>
       </c>
     </row>
     <row r="6">
@@ -18315,28 +18315,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>343.1588715642579</v>
+        <v>429.3875458088909</v>
       </c>
       <c r="AB6" t="n">
-        <v>469.525107175168</v>
+        <v>587.5069834172998</v>
       </c>
       <c r="AC6" t="n">
-        <v>424.7142899289959</v>
+        <v>531.436141491182</v>
       </c>
       <c r="AD6" t="n">
-        <v>343158.8715642579</v>
+        <v>429387.545808891</v>
       </c>
       <c r="AE6" t="n">
-        <v>469525.107175168</v>
+        <v>587506.9834172998</v>
       </c>
       <c r="AF6" t="n">
         <v>1.014742438916052e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.40494791666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>424714.2899289959</v>
+        <v>531436.1414911819</v>
       </c>
     </row>
     <row r="7">
@@ -18421,28 +18421,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>337.7557827543863</v>
+        <v>423.9844569990194</v>
       </c>
       <c r="AB7" t="n">
-        <v>462.1323626980465</v>
+        <v>580.1142389401782</v>
       </c>
       <c r="AC7" t="n">
-        <v>418.0270986089888</v>
+        <v>524.7489501711748</v>
       </c>
       <c r="AD7" t="n">
-        <v>337755.7827543863</v>
+        <v>423984.4569990194</v>
       </c>
       <c r="AE7" t="n">
-        <v>462132.3626980465</v>
+        <v>580114.2389401782</v>
       </c>
       <c r="AF7" t="n">
         <v>1.030632746767245e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.11848958333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>418027.0986089888</v>
+        <v>524748.9501711748</v>
       </c>
     </row>
     <row r="8">
@@ -18527,28 +18527,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>323.6423342564268</v>
+        <v>419.4584412547957</v>
       </c>
       <c r="AB8" t="n">
-        <v>442.8217198217343</v>
+        <v>573.9215445252091</v>
       </c>
       <c r="AC8" t="n">
-        <v>400.5594363861345</v>
+        <v>519.1472778196692</v>
       </c>
       <c r="AD8" t="n">
-        <v>323642.3342564268</v>
+        <v>419458.4412547957</v>
       </c>
       <c r="AE8" t="n">
-        <v>442821.7198217344</v>
+        <v>573921.5445252091</v>
       </c>
       <c r="AF8" t="n">
         <v>1.043052427813393e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.90364583333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>400559.4363861345</v>
+        <v>519147.2778196692</v>
       </c>
     </row>
     <row r="9">
@@ -18633,28 +18633,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>319.4585155457594</v>
+        <v>405.7545095980968</v>
       </c>
       <c r="AB9" t="n">
-        <v>437.0972344847445</v>
+        <v>555.1712206577179</v>
       </c>
       <c r="AC9" t="n">
-        <v>395.3812878953414</v>
+        <v>502.1864585458464</v>
       </c>
       <c r="AD9" t="n">
-        <v>319458.5155457595</v>
+        <v>405754.5095980968</v>
       </c>
       <c r="AE9" t="n">
-        <v>437097.2344847445</v>
+        <v>555171.2206577179</v>
       </c>
       <c r="AF9" t="n">
         <v>1.053263528165423e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.72786458333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>395381.2878953414</v>
+        <v>502186.4585458465</v>
       </c>
     </row>
     <row r="10">
@@ -18739,28 +18739,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>317.4663445119047</v>
+        <v>403.7623385642421</v>
       </c>
       <c r="AB10" t="n">
-        <v>434.3714581878413</v>
+        <v>552.4454443608147</v>
       </c>
       <c r="AC10" t="n">
-        <v>392.9156558625635</v>
+        <v>499.7208265130686</v>
       </c>
       <c r="AD10" t="n">
-        <v>317466.3445119046</v>
+        <v>403762.3385642421</v>
       </c>
       <c r="AE10" t="n">
-        <v>434371.4581878413</v>
+        <v>552445.4443608146</v>
       </c>
       <c r="AF10" t="n">
         <v>1.057307812293615e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.66276041666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>392915.6558625635</v>
+        <v>499720.8265130686</v>
       </c>
     </row>
     <row r="11">
@@ -18845,28 +18845,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>313.6969106984905</v>
+        <v>399.992904750828</v>
       </c>
       <c r="AB11" t="n">
-        <v>429.2139525486447</v>
+        <v>547.287938721618</v>
       </c>
       <c r="AC11" t="n">
-        <v>388.2503753229672</v>
+        <v>495.0555459734722</v>
       </c>
       <c r="AD11" t="n">
-        <v>313696.9106984905</v>
+        <v>399992.9047508279</v>
       </c>
       <c r="AE11" t="n">
-        <v>429213.9525486447</v>
+        <v>547287.938721618</v>
       </c>
       <c r="AF11" t="n">
         <v>1.065797940676202e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.51953125</v>
       </c>
       <c r="AH11" t="n">
-        <v>388250.3753229672</v>
+        <v>495055.5459734722</v>
       </c>
     </row>
     <row r="12">
@@ -18951,28 +18951,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>310.7963205636961</v>
+        <v>396.9908293895483</v>
       </c>
       <c r="AB12" t="n">
-        <v>425.2452371612137</v>
+        <v>543.1803667700975</v>
       </c>
       <c r="AC12" t="n">
-        <v>384.6604285619855</v>
+        <v>491.3399949239916</v>
       </c>
       <c r="AD12" t="n">
-        <v>310796.3205636961</v>
+        <v>396990.8293895483</v>
       </c>
       <c r="AE12" t="n">
-        <v>425245.2371612136</v>
+        <v>543180.3667700975</v>
       </c>
       <c r="AF12" t="n">
         <v>1.07119031951379e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.43489583333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>384660.4285619855</v>
+        <v>491339.9949239916</v>
       </c>
     </row>
     <row r="13">
@@ -19057,28 +19057,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>309.1229660670501</v>
+        <v>395.3174748929023</v>
       </c>
       <c r="AB13" t="n">
-        <v>422.9556797157124</v>
+        <v>540.8908093245964</v>
       </c>
       <c r="AC13" t="n">
-        <v>382.5893832656689</v>
+        <v>489.268949627675</v>
       </c>
       <c r="AD13" t="n">
-        <v>309122.9660670501</v>
+        <v>395317.4748929024</v>
       </c>
       <c r="AE13" t="n">
-        <v>422955.6797157124</v>
+        <v>540890.8093245964</v>
       </c>
       <c r="AF13" t="n">
         <v>1.073427583074067e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.39583333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>382589.3832656689</v>
+        <v>489268.949627675</v>
       </c>
     </row>
     <row r="14">
@@ -19163,28 +19163,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>307.0405187445791</v>
+        <v>393.2350275704312</v>
       </c>
       <c r="AB14" t="n">
-        <v>420.1063834180155</v>
+        <v>538.0415130268995</v>
       </c>
       <c r="AC14" t="n">
-        <v>380.0120198076117</v>
+        <v>486.6915861696178</v>
       </c>
       <c r="AD14" t="n">
-        <v>307040.5187445791</v>
+        <v>393235.0275704312</v>
       </c>
       <c r="AE14" t="n">
-        <v>420106.3834180156</v>
+        <v>538041.5130268994</v>
       </c>
       <c r="AF14" t="n">
         <v>1.075951675295917e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.35677083333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>380012.0198076117</v>
+        <v>486691.5861696178</v>
       </c>
     </row>
     <row r="15">
@@ -19269,28 +19269,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>306.1666494444502</v>
+        <v>392.3611582703023</v>
       </c>
       <c r="AB15" t="n">
-        <v>418.9107168891865</v>
+        <v>536.8458464980704</v>
       </c>
       <c r="AC15" t="n">
-        <v>378.9304660141656</v>
+        <v>485.6100323761717</v>
       </c>
       <c r="AD15" t="n">
-        <v>306166.6494444502</v>
+        <v>392361.1582703023</v>
       </c>
       <c r="AE15" t="n">
-        <v>418910.7168891865</v>
+        <v>536845.8464980704</v>
       </c>
       <c r="AF15" t="n">
         <v>1.078619181848554e-05</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>17.31119791666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>378930.4660141655</v>
+        <v>485610.0323761717</v>
       </c>
     </row>
   </sheetData>
@@ -19566,28 +19566,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>744.8434462735997</v>
+        <v>899.1594079819938</v>
       </c>
       <c r="AB2" t="n">
-        <v>1019.127663365235</v>
+        <v>1230.26957011441</v>
       </c>
       <c r="AC2" t="n">
-        <v>921.8635495283152</v>
+        <v>1112.854369036876</v>
       </c>
       <c r="AD2" t="n">
-        <v>744843.4462735998</v>
+        <v>899159.4079819939</v>
       </c>
       <c r="AE2" t="n">
-        <v>1019127.663365235</v>
+        <v>1230269.57011441</v>
       </c>
       <c r="AF2" t="n">
         <v>5.625186277629721e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.33463541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>921863.5495283152</v>
+        <v>1112854.369036876</v>
       </c>
     </row>
     <row r="3">
@@ -19672,28 +19672,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>464.7253877587745</v>
+        <v>570.8200627187995</v>
       </c>
       <c r="AB3" t="n">
-        <v>635.8577777686888</v>
+        <v>781.0211926157162</v>
       </c>
       <c r="AC3" t="n">
-        <v>575.1724038904405</v>
+        <v>706.4816261626</v>
       </c>
       <c r="AD3" t="n">
-        <v>464725.3877587745</v>
+        <v>570820.0627187995</v>
       </c>
       <c r="AE3" t="n">
-        <v>635857.7777686889</v>
+        <v>781021.1926157163</v>
       </c>
       <c r="AF3" t="n">
         <v>7.894537549665738e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.33072916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>575172.4038904405</v>
+        <v>706481.6261626</v>
       </c>
     </row>
     <row r="4">
@@ -19778,28 +19778,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>407.2557526254817</v>
+        <v>503.6993371520768</v>
       </c>
       <c r="AB4" t="n">
-        <v>557.2252875979538</v>
+        <v>689.1836547379023</v>
       </c>
       <c r="AC4" t="n">
-        <v>504.0444882202074</v>
+        <v>623.4089340050507</v>
       </c>
       <c r="AD4" t="n">
-        <v>407255.7526254817</v>
+        <v>503699.3371520768</v>
       </c>
       <c r="AE4" t="n">
-        <v>557225.2875979538</v>
+        <v>689183.6547379023</v>
       </c>
       <c r="AF4" t="n">
         <v>8.722734345318109e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.20833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>504044.4882202074</v>
+        <v>623408.9340050507</v>
       </c>
     </row>
     <row r="5">
@@ -19884,28 +19884,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>381.1492910615423</v>
+        <v>477.5587101693566</v>
       </c>
       <c r="AB5" t="n">
-        <v>521.5052751503732</v>
+        <v>653.416895657074</v>
       </c>
       <c r="AC5" t="n">
-        <v>471.7335436272715</v>
+        <v>591.0557042119349</v>
       </c>
       <c r="AD5" t="n">
-        <v>381149.2910615423</v>
+        <v>477558.7101693565</v>
       </c>
       <c r="AE5" t="n">
-        <v>521505.2751503732</v>
+        <v>653416.8956570739</v>
       </c>
       <c r="AF5" t="n">
         <v>9.147797754659142e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.27083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>471733.5436272715</v>
+        <v>591055.7042119349</v>
       </c>
     </row>
     <row r="6">
@@ -19990,28 +19990,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>361.872910859076</v>
+        <v>458.3496497745947</v>
       </c>
       <c r="AB6" t="n">
-        <v>495.1304813434834</v>
+        <v>627.1342117810258</v>
       </c>
       <c r="AC6" t="n">
-        <v>447.8759231240557</v>
+        <v>567.2814027970383</v>
       </c>
       <c r="AD6" t="n">
-        <v>361872.910859076</v>
+        <v>458349.6497745947</v>
       </c>
       <c r="AE6" t="n">
-        <v>495130.4813434834</v>
+        <v>627134.2117810257</v>
       </c>
       <c r="AF6" t="n">
         <v>9.406626174614575e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.73697916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>447875.9231240557</v>
+        <v>567281.4027970382</v>
       </c>
     </row>
     <row r="7">
@@ -20096,28 +20096,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>355.695579779302</v>
+        <v>442.4880738724671</v>
       </c>
       <c r="AB7" t="n">
-        <v>486.6783844355233</v>
+        <v>605.4317038683928</v>
       </c>
       <c r="AC7" t="n">
-        <v>440.2304824823987</v>
+        <v>547.6501517799257</v>
       </c>
       <c r="AD7" t="n">
-        <v>355695.579779302</v>
+        <v>442488.073872467</v>
       </c>
       <c r="AE7" t="n">
-        <v>486678.3844355233</v>
+        <v>605431.7038683927</v>
       </c>
       <c r="AF7" t="n">
         <v>9.569070789649364e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.41796875</v>
       </c>
       <c r="AH7" t="n">
-        <v>440230.4824823987</v>
+        <v>547650.1517799258</v>
       </c>
     </row>
     <row r="8">
@@ -20202,28 +20202,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>350.9813089577755</v>
+        <v>437.7738030509406</v>
       </c>
       <c r="AB8" t="n">
-        <v>480.2281111185605</v>
+        <v>598.98143055143</v>
       </c>
       <c r="AC8" t="n">
-        <v>434.3958141977914</v>
+        <v>541.8154834953185</v>
       </c>
       <c r="AD8" t="n">
-        <v>350981.3089577755</v>
+        <v>437773.8030509406</v>
       </c>
       <c r="AE8" t="n">
-        <v>480228.1111185605</v>
+        <v>598981.43055143</v>
       </c>
       <c r="AF8" t="n">
         <v>9.70010944577743e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.17057291666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>434395.8141977914</v>
+        <v>541815.4834953186</v>
       </c>
     </row>
     <row r="9">
@@ -20308,28 +20308,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>337.3058974162358</v>
+        <v>433.7484709129737</v>
       </c>
       <c r="AB9" t="n">
-        <v>461.5168097308486</v>
+        <v>593.4737935351432</v>
       </c>
       <c r="AC9" t="n">
-        <v>417.4702931530464</v>
+        <v>536.8334876258489</v>
       </c>
       <c r="AD9" t="n">
-        <v>337305.8974162358</v>
+        <v>433748.4709129737</v>
       </c>
       <c r="AE9" t="n">
-        <v>461516.8097308486</v>
+        <v>593473.7935351431</v>
       </c>
       <c r="AF9" t="n">
         <v>9.799200660948651e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.98828125</v>
       </c>
       <c r="AH9" t="n">
-        <v>417470.2931530464</v>
+        <v>536833.4876258489</v>
       </c>
     </row>
     <row r="10">
@@ -20414,28 +20414,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>334.1378057266569</v>
+        <v>430.5803792233947</v>
       </c>
       <c r="AB10" t="n">
-        <v>457.1820869148256</v>
+        <v>589.13907071912</v>
       </c>
       <c r="AC10" t="n">
-        <v>413.5492701987629</v>
+        <v>532.9124646715654</v>
       </c>
       <c r="AD10" t="n">
-        <v>334137.8057266569</v>
+        <v>430580.3792233947</v>
       </c>
       <c r="AE10" t="n">
-        <v>457182.0869148256</v>
+        <v>589139.07071912</v>
       </c>
       <c r="AF10" t="n">
         <v>9.869593327463726e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.85807291666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>413549.2701987629</v>
+        <v>532912.4646715655</v>
       </c>
     </row>
     <row r="11">
@@ -20520,28 +20520,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>330.4360694679514</v>
+        <v>417.295883368821</v>
       </c>
       <c r="AB11" t="n">
-        <v>452.1172080565869</v>
+        <v>570.9626374202979</v>
       </c>
       <c r="AC11" t="n">
-        <v>408.9677762701523</v>
+        <v>516.4707646559984</v>
       </c>
       <c r="AD11" t="n">
-        <v>330436.0694679514</v>
+        <v>417295.883368821</v>
       </c>
       <c r="AE11" t="n">
-        <v>452117.2080565869</v>
+        <v>570962.6374202979</v>
       </c>
       <c r="AF11" t="n">
         <v>9.951627858056294e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.71484375</v>
       </c>
       <c r="AH11" t="n">
-        <v>408967.7762701523</v>
+        <v>516470.7646559984</v>
       </c>
     </row>
     <row r="12">
@@ -20626,28 +20626,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>327.7723135725724</v>
+        <v>414.632127473442</v>
       </c>
       <c r="AB12" t="n">
-        <v>448.4725397239132</v>
+        <v>567.3179690876242</v>
       </c>
       <c r="AC12" t="n">
-        <v>405.6709499678249</v>
+        <v>513.173938353671</v>
       </c>
       <c r="AD12" t="n">
-        <v>327772.3135725724</v>
+        <v>414632.127473442</v>
       </c>
       <c r="AE12" t="n">
-        <v>448472.5397239132</v>
+        <v>567317.9690876242</v>
       </c>
       <c r="AF12" t="n">
         <v>1.000198568871708e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.62369791666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>405670.9499678249</v>
+        <v>513173.938353671</v>
       </c>
     </row>
     <row r="13">
@@ -20732,28 +20732,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>326.1214018038239</v>
+        <v>412.9812157046933</v>
       </c>
       <c r="AB13" t="n">
-        <v>446.2136894088245</v>
+        <v>565.0591187725355</v>
       </c>
       <c r="AC13" t="n">
-        <v>403.6276811564918</v>
+        <v>511.130669542338</v>
       </c>
       <c r="AD13" t="n">
-        <v>326121.4018038239</v>
+        <v>412981.2157046933</v>
       </c>
       <c r="AE13" t="n">
-        <v>446213.6894088244</v>
+        <v>565059.1187725355</v>
       </c>
       <c r="AF13" t="n">
         <v>1.002526941687207e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.58463541666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>403627.6811564918</v>
+        <v>511130.6695423379</v>
       </c>
     </row>
     <row r="14">
@@ -20838,28 +20838,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>323.2553287147728</v>
+        <v>410.0136573891571</v>
       </c>
       <c r="AB14" t="n">
-        <v>442.2922017661639</v>
+        <v>560.9987745657855</v>
       </c>
       <c r="AC14" t="n">
-        <v>400.0804547906044</v>
+        <v>507.4578388879515</v>
       </c>
       <c r="AD14" t="n">
-        <v>323255.3287147728</v>
+        <v>410013.6573891571</v>
       </c>
       <c r="AE14" t="n">
-        <v>442292.2017661639</v>
+        <v>560998.7745657855</v>
       </c>
       <c r="AF14" t="n">
         <v>1.008022984495884e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.48697916666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>400080.4547906044</v>
+        <v>507457.8388879515</v>
       </c>
     </row>
     <row r="15">
@@ -20944,28 +20944,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>321.4452930792822</v>
+        <v>408.2036217536664</v>
       </c>
       <c r="AB15" t="n">
-        <v>439.8156311565492</v>
+        <v>558.5222039561709</v>
       </c>
       <c r="AC15" t="n">
-        <v>397.8402446040826</v>
+        <v>505.2176287014297</v>
       </c>
       <c r="AD15" t="n">
-        <v>321445.2930792822</v>
+        <v>408203.6217536664</v>
       </c>
       <c r="AE15" t="n">
-        <v>439815.6311565491</v>
+        <v>558522.2039561708</v>
       </c>
       <c r="AF15" t="n">
         <v>1.010676246541452e-05</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>17.44140625</v>
       </c>
       <c r="AH15" t="n">
-        <v>397840.2446040825</v>
+        <v>505217.6287014297</v>
       </c>
     </row>
     <row r="16">
@@ -21050,28 +21050,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>319.7982852196554</v>
+        <v>406.5566138940396</v>
       </c>
       <c r="AB16" t="n">
-        <v>437.5621223421492</v>
+        <v>556.2686951417709</v>
       </c>
       <c r="AC16" t="n">
-        <v>395.8018075081095</v>
+        <v>503.1791916054566</v>
       </c>
       <c r="AD16" t="n">
-        <v>319798.2852196554</v>
+        <v>406556.6138940396</v>
       </c>
       <c r="AE16" t="n">
-        <v>437562.1223421491</v>
+        <v>556268.6951417709</v>
       </c>
       <c r="AF16" t="n">
         <v>1.012923397049433e-05</v>
       </c>
       <c r="AG16" t="n">
-        <v>18</v>
+        <v>17.40234375</v>
       </c>
       <c r="AH16" t="n">
-        <v>395801.8075081095</v>
+        <v>503179.1916054566</v>
       </c>
     </row>
     <row r="17">
@@ -21156,28 +21156,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>317.6624321742062</v>
+        <v>404.4207608485905</v>
       </c>
       <c r="AB17" t="n">
-        <v>434.6397539781794</v>
+        <v>553.3463267778011</v>
       </c>
       <c r="AC17" t="n">
-        <v>393.1583458792272</v>
+        <v>500.5357299765743</v>
       </c>
       <c r="AD17" t="n">
-        <v>317662.4321742062</v>
+        <v>404420.7608485905</v>
       </c>
       <c r="AE17" t="n">
-        <v>434639.7539781794</v>
+        <v>553346.3267778012</v>
       </c>
       <c r="AF17" t="n">
         <v>1.015387140377461e-05</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>17.35677083333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>393158.3458792272</v>
+        <v>500535.7299765743</v>
       </c>
     </row>
     <row r="18">
@@ -21262,28 +21262,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>317.5165121402061</v>
+        <v>404.2748408145903</v>
       </c>
       <c r="AB18" t="n">
-        <v>434.4400997501229</v>
+        <v>553.1466725497445</v>
       </c>
       <c r="AC18" t="n">
-        <v>392.9777463704798</v>
+        <v>500.3551304678269</v>
       </c>
       <c r="AD18" t="n">
-        <v>317516.5121402061</v>
+        <v>404274.8408145903</v>
       </c>
       <c r="AE18" t="n">
-        <v>434440.0997501229</v>
+        <v>553146.6725497445</v>
       </c>
       <c r="AF18" t="n">
         <v>1.014981028839874e-05</v>
       </c>
       <c r="AG18" t="n">
-        <v>18</v>
+        <v>17.36328125</v>
       </c>
       <c r="AH18" t="n">
-        <v>392977.7463704798</v>
+        <v>500355.130467827</v>
       </c>
     </row>
     <row r="19">
@@ -21368,28 +21368,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>317.9447974690876</v>
+        <v>404.7031261434719</v>
       </c>
       <c r="AB19" t="n">
-        <v>435.0260986317138</v>
+        <v>553.7326714313355</v>
       </c>
       <c r="AC19" t="n">
-        <v>393.5078183412664</v>
+        <v>500.8852024386135</v>
       </c>
       <c r="AD19" t="n">
-        <v>317944.7974690876</v>
+        <v>404703.1261434719</v>
       </c>
       <c r="AE19" t="n">
-        <v>435026.0986317138</v>
+        <v>553732.6714313355</v>
       </c>
       <c r="AF19" t="n">
         <v>1.015495436787484e-05</v>
       </c>
       <c r="AG19" t="n">
-        <v>18</v>
+        <v>17.35677083333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>393507.8183412664</v>
+        <v>500885.2024386135</v>
       </c>
     </row>
   </sheetData>
@@ -21665,28 +21665,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>994.7927262835475</v>
+        <v>1189.946929562629</v>
       </c>
       <c r="AB2" t="n">
-        <v>1361.119295258834</v>
+        <v>1628.137885781086</v>
       </c>
       <c r="AC2" t="n">
-        <v>1231.215980062259</v>
+        <v>1472.750691068013</v>
       </c>
       <c r="AD2" t="n">
-        <v>994792.7262835475</v>
+        <v>1189946.929562629</v>
       </c>
       <c r="AE2" t="n">
-        <v>1361119.295258834</v>
+        <v>1628137.885781087</v>
       </c>
       <c r="AF2" t="n">
         <v>4.333891732202038e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.97265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1231215.980062259</v>
+        <v>1472750.691068013</v>
       </c>
     </row>
     <row r="3">
@@ -21771,28 +21771,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>550.0882773512897</v>
+        <v>667.1749772648394</v>
       </c>
       <c r="AB3" t="n">
-        <v>752.6550492540697</v>
+        <v>912.8582375764261</v>
       </c>
       <c r="AC3" t="n">
-        <v>680.8227077112568</v>
+        <v>825.7363285867143</v>
       </c>
       <c r="AD3" t="n">
-        <v>550088.2773512896</v>
+        <v>667174.9772648395</v>
       </c>
       <c r="AE3" t="n">
-        <v>752655.0492540697</v>
+        <v>912858.237576426</v>
       </c>
       <c r="AF3" t="n">
         <v>6.63804837919366e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.140625</v>
       </c>
       <c r="AH3" t="n">
-        <v>680822.7077112568</v>
+        <v>825736.3285867143</v>
       </c>
     </row>
     <row r="4">
@@ -21877,28 +21877,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>465.065167194714</v>
+        <v>572.3548667127119</v>
       </c>
       <c r="AB4" t="n">
-        <v>636.3226789829519</v>
+        <v>783.1211791509606</v>
       </c>
       <c r="AC4" t="n">
-        <v>575.5929355853074</v>
+        <v>708.3811929302702</v>
       </c>
       <c r="AD4" t="n">
-        <v>465065.167194714</v>
+        <v>572354.8667127119</v>
       </c>
       <c r="AE4" t="n">
-        <v>636322.6789829519</v>
+        <v>783121.1791509606</v>
       </c>
       <c r="AF4" t="n">
         <v>7.49700017346847e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.37369791666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>575592.9355853074</v>
+        <v>708381.1929302702</v>
       </c>
     </row>
     <row r="5">
@@ -21983,28 +21983,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>431.7866808889036</v>
+        <v>529.3477108489112</v>
       </c>
       <c r="AB5" t="n">
-        <v>590.7895858761428</v>
+        <v>724.2768911562995</v>
       </c>
       <c r="AC5" t="n">
-        <v>534.4054569785145</v>
+        <v>655.1529211933426</v>
       </c>
       <c r="AD5" t="n">
-        <v>431786.6808889036</v>
+        <v>529347.7108489112</v>
       </c>
       <c r="AE5" t="n">
-        <v>590789.5858761428</v>
+        <v>724276.8911562995</v>
       </c>
       <c r="AF5" t="n">
         <v>7.955025757750825e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.14322916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>534405.4569785146</v>
+        <v>655152.9211933427</v>
       </c>
     </row>
     <row r="6">
@@ -22089,28 +22089,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>408.8969395966209</v>
+        <v>506.4238041378476</v>
       </c>
       <c r="AB6" t="n">
-        <v>559.4708320159257</v>
+        <v>692.9113906628345</v>
       </c>
       <c r="AC6" t="n">
-        <v>506.0757210305694</v>
+        <v>626.7809000452175</v>
       </c>
       <c r="AD6" t="n">
-        <v>408896.9395966209</v>
+        <v>506423.8041378476</v>
       </c>
       <c r="AE6" t="n">
-        <v>559470.8320159257</v>
+        <v>692911.3906628345</v>
       </c>
       <c r="AF6" t="n">
         <v>8.238061449274042e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.453125</v>
       </c>
       <c r="AH6" t="n">
-        <v>506075.7210305693</v>
+        <v>626780.9000452176</v>
       </c>
     </row>
     <row r="7">
@@ -22195,28 +22195,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>400.4309447165112</v>
+        <v>488.2633051185283</v>
       </c>
       <c r="AB7" t="n">
-        <v>547.8872843276253</v>
+        <v>668.0633947199299</v>
       </c>
       <c r="AC7" t="n">
-        <v>495.5976908760291</v>
+        <v>604.3043619607225</v>
       </c>
       <c r="AD7" t="n">
-        <v>400430.9447165112</v>
+        <v>488263.3051185283</v>
       </c>
       <c r="AE7" t="n">
-        <v>547887.2843276253</v>
+        <v>668063.3947199299</v>
       </c>
       <c r="AF7" t="n">
         <v>8.428310657576172e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.01041666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>495597.6908760291</v>
+        <v>604304.3619607225</v>
       </c>
     </row>
     <row r="8">
@@ -22301,28 +22301,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>383.5482296369757</v>
+        <v>481.1424139859068</v>
       </c>
       <c r="AB8" t="n">
-        <v>524.7876087429818</v>
+        <v>658.3202773207321</v>
       </c>
       <c r="AC8" t="n">
-        <v>474.7026159085857</v>
+        <v>595.491114011553</v>
       </c>
       <c r="AD8" t="n">
-        <v>383548.2296369757</v>
+        <v>481142.4139859069</v>
       </c>
       <c r="AE8" t="n">
-        <v>524787.6087429818</v>
+        <v>658320.2773207321</v>
       </c>
       <c r="AF8" t="n">
         <v>8.588533470777574e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.65885416666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>474702.6159085857</v>
+        <v>595491.114011553</v>
       </c>
     </row>
     <row r="9">
@@ -22407,28 +22407,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>379.3798765487924</v>
+        <v>467.1780715320287</v>
       </c>
       <c r="AB9" t="n">
-        <v>519.0842841529696</v>
+        <v>639.2136479120265</v>
       </c>
       <c r="AC9" t="n">
-        <v>469.543608612778</v>
+        <v>578.2079944972912</v>
       </c>
       <c r="AD9" t="n">
-        <v>379379.8765487924</v>
+        <v>467178.0715320287</v>
       </c>
       <c r="AE9" t="n">
-        <v>519084.2841529696</v>
+        <v>639213.6479120265</v>
       </c>
       <c r="AF9" t="n">
         <v>8.680827718013406e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.45703125</v>
       </c>
       <c r="AH9" t="n">
-        <v>469543.608612778</v>
+        <v>578207.9944972913</v>
       </c>
     </row>
     <row r="10">
@@ -22513,28 +22513,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>375.5117606296472</v>
+        <v>463.3099556128834</v>
       </c>
       <c r="AB10" t="n">
-        <v>513.7917573031647</v>
+        <v>633.9211210622215</v>
       </c>
       <c r="AC10" t="n">
-        <v>464.7561930974102</v>
+        <v>573.4205789819238</v>
       </c>
       <c r="AD10" t="n">
-        <v>375511.7606296472</v>
+        <v>463309.9556128834</v>
       </c>
       <c r="AE10" t="n">
-        <v>513791.7573031647</v>
+        <v>633921.1210622215</v>
       </c>
       <c r="AF10" t="n">
         <v>8.771153021308208e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.26822916666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>464756.1930974103</v>
+        <v>573420.5789819238</v>
       </c>
     </row>
     <row r="11">
@@ -22619,28 +22619,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>372.273734105759</v>
+        <v>460.0719290889953</v>
       </c>
       <c r="AB11" t="n">
-        <v>509.3613465615327</v>
+        <v>629.4907103205896</v>
       </c>
       <c r="AC11" t="n">
-        <v>460.7486145388391</v>
+        <v>569.4130004233526</v>
       </c>
       <c r="AD11" t="n">
-        <v>372273.7341057591</v>
+        <v>460071.9290889953</v>
       </c>
       <c r="AE11" t="n">
-        <v>509361.3465615327</v>
+        <v>629490.7103205896</v>
       </c>
       <c r="AF11" t="n">
         <v>8.839573823259038e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>18.125</v>
       </c>
       <c r="AH11" t="n">
-        <v>460748.6145388391</v>
+        <v>569413.0004233526</v>
       </c>
     </row>
     <row r="12">
@@ -22725,28 +22725,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>369.7742118583309</v>
+        <v>457.5724068415673</v>
       </c>
       <c r="AB12" t="n">
-        <v>505.9413899514625</v>
+        <v>626.0707537105194</v>
       </c>
       <c r="AC12" t="n">
-        <v>457.6550537876948</v>
+        <v>566.3194396722083</v>
       </c>
       <c r="AD12" t="n">
-        <v>369774.2118583309</v>
+        <v>457572.4068415673</v>
       </c>
       <c r="AE12" t="n">
-        <v>505941.3899514625</v>
+        <v>626070.7537105194</v>
       </c>
       <c r="AF12" t="n">
         <v>8.889781893755331e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>18.02734375</v>
       </c>
       <c r="AH12" t="n">
-        <v>457655.0537876948</v>
+        <v>566319.4396722083</v>
       </c>
     </row>
     <row r="13">
@@ -22831,28 +22831,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>357.4481300447241</v>
+        <v>455.0081489748745</v>
       </c>
       <c r="AB13" t="n">
-        <v>489.0763010257347</v>
+        <v>622.5622229702373</v>
       </c>
       <c r="AC13" t="n">
-        <v>442.3995452787375</v>
+        <v>563.1457581815249</v>
       </c>
       <c r="AD13" t="n">
-        <v>357448.1300447241</v>
+        <v>455008.1489748745</v>
       </c>
       <c r="AE13" t="n">
-        <v>489076.3010257347</v>
+        <v>622562.2229702373</v>
       </c>
       <c r="AF13" t="n">
         <v>8.939743846258994e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.92317708333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>442399.5452787376</v>
+        <v>563145.7581815249</v>
       </c>
     </row>
     <row r="14">
@@ -22937,28 +22937,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>354.7389747311667</v>
+        <v>452.2989936613171</v>
       </c>
       <c r="AB14" t="n">
-        <v>485.3695152062283</v>
+        <v>618.8554371507309</v>
       </c>
       <c r="AC14" t="n">
-        <v>439.0465298953382</v>
+        <v>559.7927427981256</v>
       </c>
       <c r="AD14" t="n">
-        <v>354738.9747311667</v>
+        <v>452298.993661317</v>
       </c>
       <c r="AE14" t="n">
-        <v>485369.5152062283</v>
+        <v>618855.437150731</v>
       </c>
       <c r="AF14" t="n">
         <v>8.987490736828998e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.82552083333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>439046.5298953382</v>
+        <v>559792.7427981256</v>
       </c>
     </row>
     <row r="15">
@@ -23043,28 +23043,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>353.2853232360179</v>
+        <v>441.1508380269586</v>
       </c>
       <c r="AB15" t="n">
-        <v>483.3805650999879</v>
+        <v>603.6020387898863</v>
       </c>
       <c r="AC15" t="n">
-        <v>437.2474023957284</v>
+        <v>545.9951073685609</v>
       </c>
       <c r="AD15" t="n">
-        <v>353285.3232360179</v>
+        <v>441150.8380269586</v>
       </c>
       <c r="AE15" t="n">
-        <v>483380.5650999879</v>
+        <v>603602.0387898863</v>
       </c>
       <c r="AF15" t="n">
         <v>9.012348654084515e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>17.77994791666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>437247.4023957284</v>
+        <v>545995.1073685609</v>
       </c>
     </row>
     <row r="16">
@@ -23149,28 +23149,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>351.6416164551643</v>
+        <v>439.507131246105</v>
       </c>
       <c r="AB16" t="n">
-        <v>481.1315729671987</v>
+        <v>601.353046657097</v>
       </c>
       <c r="AC16" t="n">
-        <v>435.2130509156123</v>
+        <v>543.9607558884447</v>
       </c>
       <c r="AD16" t="n">
-        <v>351641.6164551643</v>
+        <v>439507.131246105</v>
       </c>
       <c r="AE16" t="n">
-        <v>481131.5729671987</v>
+        <v>601353.0466570971</v>
       </c>
       <c r="AF16" t="n">
         <v>9.036714335354775e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>18</v>
+        <v>17.734375</v>
       </c>
       <c r="AH16" t="n">
-        <v>435213.0509156123</v>
+        <v>543960.7558884447</v>
       </c>
     </row>
     <row r="17">
@@ -23255,28 +23255,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>350.1134309780868</v>
+        <v>437.9789457690275</v>
       </c>
       <c r="AB17" t="n">
-        <v>479.0406421786762</v>
+        <v>599.2621158685746</v>
       </c>
       <c r="AC17" t="n">
-        <v>433.3216756269065</v>
+        <v>542.069380599739</v>
       </c>
       <c r="AD17" t="n">
-        <v>350113.4309780868</v>
+        <v>437978.9457690275</v>
       </c>
       <c r="AE17" t="n">
-        <v>479040.6421786762</v>
+        <v>599262.1158685746</v>
       </c>
       <c r="AF17" t="n">
         <v>9.057142128742972e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>17.68880208333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>433321.6756269066</v>
+        <v>542069.380599739</v>
       </c>
     </row>
     <row r="18">
@@ -23361,28 +23361,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>348.6070746237968</v>
+        <v>436.4725894147375</v>
       </c>
       <c r="AB18" t="n">
-        <v>476.9795789589845</v>
+        <v>597.2010526488829</v>
       </c>
       <c r="AC18" t="n">
-        <v>431.4573173881819</v>
+        <v>540.2050223610144</v>
       </c>
       <c r="AD18" t="n">
-        <v>348607.0746237969</v>
+        <v>436472.5894147375</v>
       </c>
       <c r="AE18" t="n">
-        <v>476979.5789589845</v>
+        <v>597201.0526488828</v>
       </c>
       <c r="AF18" t="n">
         <v>9.082738399976377e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>18</v>
+        <v>17.64322916666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>431457.3173881819</v>
+        <v>540205.0223610144</v>
       </c>
     </row>
     <row r="19">
@@ -23467,28 +23467,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>346.7848922156077</v>
+        <v>434.6504070065485</v>
       </c>
       <c r="AB19" t="n">
-        <v>474.4863885990858</v>
+        <v>594.7078622889842</v>
       </c>
       <c r="AC19" t="n">
-        <v>429.2020736170174</v>
+        <v>537.9497785898499</v>
       </c>
       <c r="AD19" t="n">
-        <v>346784.8922156077</v>
+        <v>434650.4070065485</v>
       </c>
       <c r="AE19" t="n">
-        <v>474486.3885990859</v>
+        <v>594707.8622889842</v>
       </c>
       <c r="AF19" t="n">
         <v>9.11079585113607e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>18</v>
+        <v>17.58463541666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>429202.0736170174</v>
+        <v>537949.7785898498</v>
       </c>
     </row>
     <row r="20">
@@ -23573,28 +23573,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>344.6451767165924</v>
+        <v>432.5106915075331</v>
       </c>
       <c r="AB20" t="n">
-        <v>471.5587354557475</v>
+        <v>591.7802091456458</v>
       </c>
       <c r="AC20" t="n">
-        <v>426.5538315806921</v>
+        <v>535.3015365535247</v>
       </c>
       <c r="AD20" t="n">
-        <v>344645.1767165924</v>
+        <v>432510.6915075331</v>
       </c>
       <c r="AE20" t="n">
-        <v>471558.7354557475</v>
+        <v>591780.2091456458</v>
       </c>
       <c r="AF20" t="n">
         <v>9.138361066310505e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>18</v>
+        <v>17.53255208333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>426553.8315806921</v>
+        <v>535301.5365535247</v>
       </c>
     </row>
     <row r="21">
@@ -23679,28 +23679,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>343.8670942147231</v>
+        <v>431.7326090056638</v>
       </c>
       <c r="AB21" t="n">
-        <v>470.4941286501127</v>
+        <v>590.7156023400111</v>
       </c>
       <c r="AC21" t="n">
-        <v>425.590829354402</v>
+        <v>534.3385343272346</v>
       </c>
       <c r="AD21" t="n">
-        <v>343867.0942147231</v>
+        <v>431732.6090056638</v>
       </c>
       <c r="AE21" t="n">
-        <v>470494.1286501127</v>
+        <v>590715.602340011</v>
       </c>
       <c r="AF21" t="n">
         <v>9.137622712332619e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>18</v>
+        <v>17.53255208333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>425590.829354402</v>
+        <v>534338.5343272346</v>
       </c>
     </row>
     <row r="22">
@@ -23785,28 +23785,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>342.3826081086673</v>
+        <v>430.1466376731228</v>
       </c>
       <c r="AB22" t="n">
-        <v>468.4629892689022</v>
+        <v>588.5456063947113</v>
       </c>
       <c r="AC22" t="n">
-        <v>423.7535390650124</v>
+        <v>532.3756397493459</v>
       </c>
       <c r="AD22" t="n">
-        <v>342382.6081086673</v>
+        <v>430146.6376731228</v>
       </c>
       <c r="AE22" t="n">
-        <v>468462.9892689022</v>
+        <v>588545.6063947113</v>
       </c>
       <c r="AF22" t="n">
         <v>9.163711219551281e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>18</v>
+        <v>17.48697916666667</v>
       </c>
       <c r="AH22" t="n">
-        <v>423753.5390650124</v>
+        <v>532375.6397493458</v>
       </c>
     </row>
     <row r="23">
@@ -23891,28 +23891,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>341.1299132139521</v>
+        <v>428.8939427784076</v>
       </c>
       <c r="AB23" t="n">
-        <v>466.7489968489546</v>
+        <v>586.8316139747635</v>
       </c>
       <c r="AC23" t="n">
-        <v>422.203127676021</v>
+        <v>530.8252283603546</v>
       </c>
       <c r="AD23" t="n">
-        <v>341129.9132139521</v>
+        <v>428893.9427784076</v>
       </c>
       <c r="AE23" t="n">
-        <v>466748.9968489546</v>
+        <v>586831.6139747635</v>
       </c>
       <c r="AF23" t="n">
         <v>9.159527213676588e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>18</v>
+        <v>17.49348958333333</v>
       </c>
       <c r="AH23" t="n">
-        <v>422203.127676021</v>
+        <v>530825.2283603546</v>
       </c>
     </row>
     <row r="24">
@@ -23997,28 +23997,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>339.2848223730403</v>
+        <v>427.0488519374957</v>
       </c>
       <c r="AB24" t="n">
-        <v>464.224462160756</v>
+        <v>584.3070792865651</v>
       </c>
       <c r="AC24" t="n">
-        <v>419.9195310352574</v>
+        <v>528.5416317195909</v>
       </c>
       <c r="AD24" t="n">
-        <v>339284.8223730403</v>
+        <v>427048.8519374958</v>
       </c>
       <c r="AE24" t="n">
-        <v>464224.462160756</v>
+        <v>584307.0792865651</v>
       </c>
       <c r="AF24" t="n">
         <v>9.188569136806797e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>18</v>
+        <v>17.44140625</v>
       </c>
       <c r="AH24" t="n">
-        <v>419919.5310352574</v>
+        <v>528541.6317195909</v>
       </c>
     </row>
     <row r="25">
@@ -24103,28 +24103,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>338.4583055746328</v>
+        <v>426.2223351390883</v>
       </c>
       <c r="AB25" t="n">
-        <v>463.0935854138272</v>
+        <v>583.1762025396363</v>
       </c>
       <c r="AC25" t="n">
-        <v>418.89658357786</v>
+        <v>527.5186842621935</v>
       </c>
       <c r="AD25" t="n">
-        <v>338458.3055746328</v>
+        <v>426222.3351390883</v>
       </c>
       <c r="AE25" t="n">
-        <v>463093.5854138272</v>
+        <v>583176.2025396363</v>
       </c>
       <c r="AF25" t="n">
         <v>9.18807690082154e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>18</v>
+        <v>17.44140625</v>
       </c>
       <c r="AH25" t="n">
-        <v>418896.58357786</v>
+        <v>527518.6842621935</v>
       </c>
     </row>
     <row r="26">
@@ -24209,28 +24209,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>338.9111003401016</v>
+        <v>426.6751299045571</v>
       </c>
       <c r="AB26" t="n">
-        <v>463.7131191878368</v>
+        <v>583.7957363136459</v>
       </c>
       <c r="AC26" t="n">
-        <v>419.4569899179992</v>
+        <v>528.0790906023327</v>
       </c>
       <c r="AD26" t="n">
-        <v>338911.1003401016</v>
+        <v>426675.1299045571</v>
       </c>
       <c r="AE26" t="n">
-        <v>463713.1191878368</v>
+        <v>583795.7363136458</v>
       </c>
       <c r="AF26" t="n">
         <v>9.180447243050044e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>18</v>
+        <v>17.45442708333333</v>
       </c>
       <c r="AH26" t="n">
-        <v>419456.9899179992</v>
+        <v>528079.0906023327</v>
       </c>
     </row>
   </sheetData>
@@ -24506,28 +24506,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>550.2987044755464</v>
+        <v>683.5409269056504</v>
       </c>
       <c r="AB2" t="n">
-        <v>752.9429649288672</v>
+        <v>935.2508518897243</v>
       </c>
       <c r="AC2" t="n">
-        <v>681.0831451181439</v>
+        <v>845.9918232181831</v>
       </c>
       <c r="AD2" t="n">
-        <v>550298.7044755464</v>
+        <v>683540.9269056504</v>
       </c>
       <c r="AE2" t="n">
-        <v>752942.9649288673</v>
+        <v>935250.8518897244</v>
       </c>
       <c r="AF2" t="n">
         <v>7.464683921557356e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.7578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>681083.1451181439</v>
+        <v>845991.8232181831</v>
       </c>
     </row>
     <row r="3">
@@ -24612,28 +24612,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>387.0385500173251</v>
+        <v>491.721546479811</v>
       </c>
       <c r="AB3" t="n">
-        <v>529.5632190694434</v>
+        <v>672.7951131172781</v>
       </c>
       <c r="AC3" t="n">
-        <v>479.022448688101</v>
+        <v>608.5844917952362</v>
       </c>
       <c r="AD3" t="n">
-        <v>387038.5500173251</v>
+        <v>491721.546479811</v>
       </c>
       <c r="AE3" t="n">
-        <v>529563.2190694434</v>
+        <v>672795.1131172781</v>
       </c>
       <c r="AF3" t="n">
         <v>9.623793657099267e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.75520833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>479022.448688101</v>
+        <v>608584.4917952362</v>
       </c>
     </row>
     <row r="4">
@@ -24718,28 +24718,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>352.2201141846043</v>
+        <v>447.3160488501796</v>
       </c>
       <c r="AB4" t="n">
-        <v>481.9230990821371</v>
+        <v>612.0375522281228</v>
       </c>
       <c r="AC4" t="n">
-        <v>435.9290348890548</v>
+        <v>553.6255472435695</v>
       </c>
       <c r="AD4" t="n">
-        <v>352220.1141846043</v>
+        <v>447316.0488501796</v>
       </c>
       <c r="AE4" t="n">
-        <v>481923.0990821371</v>
+        <v>612037.5522281227</v>
       </c>
       <c r="AF4" t="n">
         <v>1.041631610230386e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.1796875</v>
       </c>
       <c r="AH4" t="n">
-        <v>435929.0348890548</v>
+        <v>553625.5472435695</v>
       </c>
     </row>
     <row r="5">
@@ -24824,28 +24824,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>331.5373164030157</v>
+        <v>426.7005708762956</v>
       </c>
       <c r="AB5" t="n">
-        <v>453.6239826967278</v>
+        <v>583.8305457735549</v>
       </c>
       <c r="AC5" t="n">
-        <v>410.3307464534097</v>
+        <v>528.1105778962434</v>
       </c>
       <c r="AD5" t="n">
-        <v>331537.3164030157</v>
+        <v>426700.5708762956</v>
       </c>
       <c r="AE5" t="n">
-        <v>453623.9826967277</v>
+        <v>583830.5457735549</v>
       </c>
       <c r="AF5" t="n">
         <v>1.07970827900696e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.50260416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>410330.7464534097</v>
+        <v>528110.5778962434</v>
       </c>
     </row>
     <row r="6">
@@ -24930,28 +24930,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>324.6291941519663</v>
+        <v>410.2395522471165</v>
       </c>
       <c r="AB6" t="n">
-        <v>444.1719850679975</v>
+        <v>561.3078538762235</v>
       </c>
       <c r="AC6" t="n">
-        <v>401.7808342124034</v>
+        <v>507.7374201027966</v>
       </c>
       <c r="AD6" t="n">
-        <v>324629.1941519663</v>
+        <v>410239.5522471165</v>
       </c>
       <c r="AE6" t="n">
-        <v>444171.9850679975</v>
+        <v>561307.8538762234</v>
       </c>
       <c r="AF6" t="n">
         <v>1.102904057890997e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.11197916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>401780.8342124034</v>
+        <v>507737.4201027966</v>
       </c>
     </row>
     <row r="7">
@@ -25036,28 +25036,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>310.2336837053276</v>
+        <v>405.3627727598266</v>
       </c>
       <c r="AB7" t="n">
-        <v>424.4754125898075</v>
+        <v>554.635229033387</v>
       </c>
       <c r="AC7" t="n">
-        <v>383.9640749672188</v>
+        <v>501.7016212098727</v>
       </c>
       <c r="AD7" t="n">
-        <v>310233.6837053276</v>
+        <v>405362.7727598266</v>
       </c>
       <c r="AE7" t="n">
-        <v>424475.4125898075</v>
+        <v>554635.2290333869</v>
       </c>
       <c r="AF7" t="n">
         <v>1.11710993834511e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.88411458333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>383964.0749672188</v>
+        <v>501701.6212098727</v>
       </c>
     </row>
     <row r="8">
@@ -25142,28 +25142,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>305.5497144489125</v>
+        <v>391.2273923517671</v>
       </c>
       <c r="AB8" t="n">
-        <v>418.0665992110409</v>
+        <v>535.2945779501084</v>
       </c>
       <c r="AC8" t="n">
-        <v>378.1669097424956</v>
+        <v>484.2068147212079</v>
       </c>
       <c r="AD8" t="n">
-        <v>305549.7144489125</v>
+        <v>391227.3923517671</v>
       </c>
       <c r="AE8" t="n">
-        <v>418066.5992110409</v>
+        <v>535294.5779501084</v>
       </c>
       <c r="AF8" t="n">
         <v>1.131070360821614e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.66276041666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>378166.9097424956</v>
+        <v>484206.8147212079</v>
       </c>
     </row>
     <row r="9">
@@ -25248,28 +25248,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>302.4184841796673</v>
+        <v>388.0961620825219</v>
       </c>
       <c r="AB9" t="n">
-        <v>413.7823118165295</v>
+        <v>531.0102905555971</v>
       </c>
       <c r="AC9" t="n">
-        <v>374.2915087238813</v>
+        <v>480.3314137025936</v>
       </c>
       <c r="AD9" t="n">
-        <v>302418.4841796673</v>
+        <v>388096.1620825219</v>
       </c>
       <c r="AE9" t="n">
-        <v>413782.3118165295</v>
+        <v>531010.2905555971</v>
       </c>
       <c r="AF9" t="n">
         <v>1.138372735655477e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.54557291666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>374291.5087238813</v>
+        <v>480331.4137025937</v>
       </c>
     </row>
     <row r="10">
@@ -25354,28 +25354,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>298.9685640935597</v>
+        <v>384.5447567699291</v>
       </c>
       <c r="AB10" t="n">
-        <v>409.0619789549847</v>
+        <v>526.1511011299629</v>
       </c>
       <c r="AC10" t="n">
-        <v>370.0216778056135</v>
+        <v>475.9359784958269</v>
       </c>
       <c r="AD10" t="n">
-        <v>298968.5640935597</v>
+        <v>384544.7567699291</v>
       </c>
       <c r="AE10" t="n">
-        <v>409061.9789549847</v>
+        <v>526151.1011299628</v>
       </c>
       <c r="AF10" t="n">
         <v>1.146073979702955e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.42838541666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>370021.6778056135</v>
+        <v>475935.9784958269</v>
       </c>
     </row>
     <row r="11">
@@ -25460,28 +25460,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>296.0448583940346</v>
+        <v>381.6210510704039</v>
       </c>
       <c r="AB11" t="n">
-        <v>405.0616358321021</v>
+        <v>522.1507580070803</v>
       </c>
       <c r="AC11" t="n">
-        <v>366.403121815862</v>
+        <v>472.3174225060754</v>
       </c>
       <c r="AD11" t="n">
-        <v>296044.8583940346</v>
+        <v>381621.0510704039</v>
       </c>
       <c r="AE11" t="n">
-        <v>405061.6358321022</v>
+        <v>522150.7580070804</v>
       </c>
       <c r="AF11" t="n">
         <v>1.15147405521035e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.35026041666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>366403.121815862</v>
+        <v>472317.4225060754</v>
       </c>
     </row>
     <row r="12">
@@ -25566,28 +25566,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>295.7304460772951</v>
+        <v>381.3066387536645</v>
       </c>
       <c r="AB12" t="n">
-        <v>404.6314430294468</v>
+        <v>521.720565204425</v>
       </c>
       <c r="AC12" t="n">
-        <v>366.0139860105127</v>
+        <v>471.9282867007261</v>
       </c>
       <c r="AD12" t="n">
-        <v>295730.4460772951</v>
+        <v>381306.6387536644</v>
       </c>
       <c r="AE12" t="n">
-        <v>404631.4430294468</v>
+        <v>521720.565204425</v>
       </c>
       <c r="AF12" t="n">
         <v>1.150829728019127e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.35677083333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>366013.9860105127</v>
+        <v>471928.2867007261</v>
       </c>
     </row>
   </sheetData>
@@ -25863,28 +25863,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>434.6906225440018</v>
+        <v>556.8344254988489</v>
       </c>
       <c r="AB2" t="n">
-        <v>594.7628869615123</v>
+        <v>761.8854267686115</v>
       </c>
       <c r="AC2" t="n">
-        <v>537.9995517848594</v>
+        <v>689.1721509507269</v>
       </c>
       <c r="AD2" t="n">
-        <v>434690.6225440018</v>
+        <v>556834.4254988489</v>
       </c>
       <c r="AE2" t="n">
-        <v>594762.8869615123</v>
+        <v>761885.4267686115</v>
       </c>
       <c r="AF2" t="n">
         <v>9.534148188689251e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.82161458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>537999.5517848594</v>
+        <v>689172.1509507268</v>
       </c>
     </row>
     <row r="3">
@@ -25969,28 +25969,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>334.1486909486106</v>
+        <v>428.1580246350787</v>
       </c>
       <c r="AB3" t="n">
-        <v>457.1969805557248</v>
+        <v>585.8246983046439</v>
       </c>
       <c r="AC3" t="n">
-        <v>413.562742411478</v>
+        <v>529.9144113085759</v>
       </c>
       <c r="AD3" t="n">
-        <v>334148.6909486106</v>
+        <v>428158.0246350787</v>
       </c>
       <c r="AE3" t="n">
-        <v>457196.9805557248</v>
+        <v>585824.6983046439</v>
       </c>
       <c r="AF3" t="n">
         <v>1.15824131190096e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.609375</v>
       </c>
       <c r="AH3" t="n">
-        <v>413562.742411478</v>
+        <v>529914.411308576</v>
       </c>
     </row>
     <row r="4">
@@ -26075,28 +26075,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>307.7471649266104</v>
+        <v>392.2882454367273</v>
       </c>
       <c r="AB4" t="n">
-        <v>421.0732478993001</v>
+        <v>536.7460839424858</v>
       </c>
       <c r="AC4" t="n">
-        <v>380.8866080998053</v>
+        <v>485.5197910188744</v>
       </c>
       <c r="AD4" t="n">
-        <v>307747.1649266104</v>
+        <v>392288.2454367272</v>
       </c>
       <c r="AE4" t="n">
-        <v>421073.2478993001</v>
+        <v>536746.0839424859</v>
       </c>
       <c r="AF4" t="n">
         <v>1.231087116270044e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.45052083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>380886.6080998053</v>
+        <v>485519.7910188744</v>
       </c>
     </row>
     <row r="5">
@@ -26181,28 +26181,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>289.874213444297</v>
+        <v>383.8152162932035</v>
       </c>
       <c r="AB5" t="n">
-        <v>396.618687182229</v>
+        <v>525.1529116646525</v>
       </c>
       <c r="AC5" t="n">
-        <v>358.7659563353799</v>
+        <v>475.033054832118</v>
       </c>
       <c r="AD5" t="n">
-        <v>289874.213444297</v>
+        <v>383815.2162932035</v>
       </c>
       <c r="AE5" t="n">
-        <v>396618.687182229</v>
+        <v>525152.9116646525</v>
       </c>
       <c r="AF5" t="n">
         <v>1.265940065774217e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.94270833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>358765.9563353799</v>
+        <v>475033.054832118</v>
       </c>
     </row>
     <row r="6">
@@ -26287,28 +26287,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>283.8762519023747</v>
+        <v>368.4846522201961</v>
       </c>
       <c r="AB6" t="n">
-        <v>388.4120115891831</v>
+        <v>504.1769575632104</v>
       </c>
       <c r="AC6" t="n">
-        <v>351.3425143427928</v>
+        <v>456.0590163501811</v>
       </c>
       <c r="AD6" t="n">
-        <v>283876.2519023747</v>
+        <v>368484.6522201961</v>
       </c>
       <c r="AE6" t="n">
-        <v>388412.0115891831</v>
+        <v>504176.9575632104</v>
       </c>
       <c r="AF6" t="n">
         <v>1.287954291136713e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.63671875</v>
       </c>
       <c r="AH6" t="n">
-        <v>351342.5143427928</v>
+        <v>456059.0163501811</v>
       </c>
     </row>
     <row r="7">
@@ -26393,28 +26393,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>278.7191515509008</v>
+        <v>363.2260666422368</v>
       </c>
       <c r="AB7" t="n">
-        <v>381.3558393730861</v>
+        <v>496.981928783024</v>
       </c>
       <c r="AC7" t="n">
-        <v>344.9597732996002</v>
+        <v>449.5506710184894</v>
       </c>
       <c r="AD7" t="n">
-        <v>278719.1515509008</v>
+        <v>363226.0666422368</v>
       </c>
       <c r="AE7" t="n">
-        <v>381355.8393730861</v>
+        <v>496981.928783024</v>
       </c>
       <c r="AF7" t="n">
         <v>1.303828257127103e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.421875</v>
       </c>
       <c r="AH7" t="n">
-        <v>344959.7732996002</v>
+        <v>449550.6710184894</v>
       </c>
     </row>
     <row r="8">
@@ -26499,28 +26499,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>278.2183375357289</v>
+        <v>362.725252627065</v>
       </c>
       <c r="AB8" t="n">
-        <v>380.6706035431731</v>
+        <v>496.2966929531109</v>
       </c>
       <c r="AC8" t="n">
-        <v>344.3399354155595</v>
+        <v>448.9308331344487</v>
       </c>
       <c r="AD8" t="n">
-        <v>278218.3375357289</v>
+        <v>362725.252627065</v>
       </c>
       <c r="AE8" t="n">
-        <v>380670.6035431731</v>
+        <v>496296.6929531109</v>
       </c>
       <c r="AF8" t="n">
         <v>1.305014443596714e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.40234375</v>
       </c>
       <c r="AH8" t="n">
-        <v>344339.9354155594</v>
+        <v>448930.8331344487</v>
       </c>
     </row>
   </sheetData>
@@ -49777,28 +49777,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>373.6574600492949</v>
+        <v>475.9557818357658</v>
       </c>
       <c r="AB2" t="n">
-        <v>511.2546214431586</v>
+        <v>651.2236983948477</v>
       </c>
       <c r="AC2" t="n">
-        <v>462.4611979229907</v>
+        <v>589.071822618244</v>
       </c>
       <c r="AD2" t="n">
-        <v>373657.4600492949</v>
+        <v>475955.7818357658</v>
       </c>
       <c r="AE2" t="n">
-        <v>511254.6214431586</v>
+        <v>651223.6983948477</v>
       </c>
       <c r="AF2" t="n">
         <v>1.157941468973689e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.03125</v>
       </c>
       <c r="AH2" t="n">
-        <v>462461.1979229907</v>
+        <v>589071.822618244</v>
       </c>
     </row>
     <row r="3">
@@ -49883,28 +49883,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>294.7481876127456</v>
+        <v>387.7736963704878</v>
       </c>
       <c r="AB3" t="n">
-        <v>403.2874736640651</v>
+        <v>530.5690787422088</v>
       </c>
       <c r="AC3" t="n">
-        <v>364.7982831950902</v>
+        <v>479.9323105254306</v>
       </c>
       <c r="AD3" t="n">
-        <v>294748.1876127456</v>
+        <v>387773.6963704878</v>
       </c>
       <c r="AE3" t="n">
-        <v>403287.4736640651</v>
+        <v>530569.0787422088</v>
       </c>
       <c r="AF3" t="n">
         <v>1.352864620091782e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.85416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>364798.2831950902</v>
+        <v>479932.3105254307</v>
       </c>
     </row>
     <row r="4">
@@ -49989,28 +49989,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>272.5590035292187</v>
+        <v>365.5503468681802</v>
       </c>
       <c r="AB4" t="n">
-        <v>372.9272530832704</v>
+        <v>500.1621115281663</v>
       </c>
       <c r="AC4" t="n">
-        <v>337.3355994556893</v>
+        <v>452.4273415858499</v>
       </c>
       <c r="AD4" t="n">
-        <v>272559.0035292187</v>
+        <v>365550.3468681801</v>
       </c>
       <c r="AE4" t="n">
-        <v>372927.2530832704</v>
+        <v>500162.1115281663</v>
       </c>
       <c r="AF4" t="n">
         <v>1.420294317192131e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.96223958333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>337335.5994556893</v>
+        <v>452427.3415858499</v>
       </c>
     </row>
     <row r="5">
@@ -50095,28 +50095,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>265.1386489478099</v>
+        <v>348.8923557066806</v>
       </c>
       <c r="AB5" t="n">
-        <v>362.7743965820468</v>
+        <v>477.3699131222992</v>
       </c>
       <c r="AC5" t="n">
-        <v>328.1517173293189</v>
+        <v>431.8103986067873</v>
       </c>
       <c r="AD5" t="n">
-        <v>265138.6489478099</v>
+        <v>348892.3557066806</v>
       </c>
       <c r="AE5" t="n">
-        <v>362774.3965820469</v>
+        <v>477369.9131222992</v>
       </c>
       <c r="AF5" t="n">
         <v>1.453480228548317e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.55208333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>328151.7173293189</v>
+        <v>431810.3986067873</v>
       </c>
     </row>
     <row r="6">
@@ -50201,28 +50201,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>264.6646231385679</v>
+        <v>348.3168446709534</v>
       </c>
       <c r="AB6" t="n">
-        <v>362.1258135572992</v>
+        <v>476.5824735334622</v>
       </c>
       <c r="AC6" t="n">
-        <v>327.5650341581612</v>
+        <v>431.0981111471305</v>
       </c>
       <c r="AD6" t="n">
-        <v>264664.6231385679</v>
+        <v>348316.8446709534</v>
       </c>
       <c r="AE6" t="n">
-        <v>362125.8135572992</v>
+        <v>476582.4735334622</v>
       </c>
       <c r="AF6" t="n">
         <v>1.45786844823178e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>327565.0341581611</v>
+        <v>431098.1111471305</v>
       </c>
     </row>
   </sheetData>
@@ -50498,28 +50498,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>266.8056387860834</v>
+        <v>357.8813080814877</v>
       </c>
       <c r="AB2" t="n">
-        <v>365.0552456211741</v>
+        <v>489.6689943261009</v>
       </c>
       <c r="AC2" t="n">
-        <v>330.2148853373436</v>
+        <v>442.9356727623671</v>
       </c>
       <c r="AD2" t="n">
-        <v>266805.6387860834</v>
+        <v>357881.3080814877</v>
       </c>
       <c r="AE2" t="n">
-        <v>365055.2456211741</v>
+        <v>489668.9943261009</v>
       </c>
       <c r="AF2" t="n">
         <v>1.759387779717124e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.17317708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>330214.8853373436</v>
+        <v>442935.6727623671</v>
       </c>
     </row>
     <row r="3">
@@ -50604,28 +50604,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>247.4679770386812</v>
+        <v>329.4600963006804</v>
       </c>
       <c r="AB3" t="n">
-        <v>338.5966037007923</v>
+        <v>450.7818385122293</v>
       </c>
       <c r="AC3" t="n">
-        <v>306.2814190670076</v>
+        <v>407.7598525209054</v>
       </c>
       <c r="AD3" t="n">
-        <v>247467.9770386812</v>
+        <v>329460.0963006804</v>
       </c>
       <c r="AE3" t="n">
-        <v>338596.6037007924</v>
+        <v>450781.8385122293</v>
       </c>
       <c r="AF3" t="n">
         <v>1.85743094887431e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.1640625</v>
       </c>
       <c r="AH3" t="n">
-        <v>306281.4190670076</v>
+        <v>407759.8525209054</v>
       </c>
     </row>
   </sheetData>
@@ -50901,28 +50901,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>693.3463538272899</v>
+        <v>837.5855619028434</v>
       </c>
       <c r="AB2" t="n">
-        <v>948.667069588817</v>
+        <v>1146.021517462544</v>
       </c>
       <c r="AC2" t="n">
-        <v>858.1276159298541</v>
+        <v>1036.64683228722</v>
       </c>
       <c r="AD2" t="n">
-        <v>693346.3538272899</v>
+        <v>837585.5619028434</v>
       </c>
       <c r="AE2" t="n">
-        <v>948667.069588817</v>
+        <v>1146021.517462544</v>
       </c>
       <c r="AF2" t="n">
         <v>6.028071669351922e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.06510416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>858127.6159298541</v>
+        <v>1036646.83228722</v>
       </c>
     </row>
     <row r="3">
@@ -51007,28 +51007,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>439.8933598625906</v>
+        <v>555.2702513316353</v>
       </c>
       <c r="AB3" t="n">
-        <v>601.8815016893766</v>
+        <v>759.7452546665359</v>
       </c>
       <c r="AC3" t="n">
-        <v>544.4387759141347</v>
+        <v>687.2362338703231</v>
       </c>
       <c r="AD3" t="n">
-        <v>439893.3598625906</v>
+        <v>555270.2513316353</v>
       </c>
       <c r="AE3" t="n">
-        <v>601881.5016893765</v>
+        <v>759745.2546665359</v>
       </c>
       <c r="AF3" t="n">
         <v>8.271826063689065e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.90755208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>544438.7759141347</v>
+        <v>687236.233870323</v>
       </c>
     </row>
     <row r="4">
@@ -51113,28 +51113,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>386.8692794702557</v>
+        <v>492.6257357470832</v>
       </c>
       <c r="AB4" t="n">
-        <v>529.3316156392535</v>
+        <v>674.0322647627751</v>
       </c>
       <c r="AC4" t="n">
-        <v>478.812949164231</v>
+        <v>609.7035714240402</v>
       </c>
       <c r="AD4" t="n">
-        <v>386869.2794702557</v>
+        <v>492625.7357470832</v>
       </c>
       <c r="AE4" t="n">
-        <v>529331.6156392535</v>
+        <v>674032.264762775</v>
       </c>
       <c r="AF4" t="n">
         <v>9.071059173632235e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.98046875</v>
       </c>
       <c r="AH4" t="n">
-        <v>478812.949164231</v>
+        <v>609703.5714240402</v>
       </c>
     </row>
     <row r="5">
@@ -51219,28 +51219,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>372.025872039698</v>
+        <v>458.5766343807291</v>
       </c>
       <c r="AB5" t="n">
-        <v>509.0222107478453</v>
+        <v>627.4447821329928</v>
       </c>
       <c r="AC5" t="n">
-        <v>460.44184537123</v>
+        <v>567.5623327505019</v>
       </c>
       <c r="AD5" t="n">
-        <v>372025.872039698</v>
+        <v>458576.6343807291</v>
       </c>
       <c r="AE5" t="n">
-        <v>509022.2107478454</v>
+        <v>627444.7821329929</v>
       </c>
       <c r="AF5" t="n">
         <v>9.482228558301708e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.11458333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>460441.84537123</v>
+        <v>567562.3327505019</v>
       </c>
     </row>
     <row r="6">
@@ -51325,28 +51325,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>352.6347956018937</v>
+        <v>448.8049821052848</v>
       </c>
       <c r="AB6" t="n">
-        <v>482.4904844917254</v>
+        <v>614.0747763948568</v>
       </c>
       <c r="AC6" t="n">
-        <v>436.4422698314825</v>
+        <v>555.4683415950925</v>
       </c>
       <c r="AD6" t="n">
-        <v>352634.7956018937</v>
+        <v>448804.9821052848</v>
       </c>
       <c r="AE6" t="n">
-        <v>482490.4844917254</v>
+        <v>614074.7763948569</v>
       </c>
       <c r="AF6" t="n">
         <v>9.759218089612558e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.57421875</v>
       </c>
       <c r="AH6" t="n">
-        <v>436442.2698314824</v>
+        <v>555468.3415950926</v>
       </c>
     </row>
     <row r="7">
@@ -51431,28 +51431,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>346.7413061835981</v>
+        <v>433.2579031058484</v>
       </c>
       <c r="AB7" t="n">
-        <v>474.4267522672103</v>
+        <v>592.80257701911</v>
       </c>
       <c r="AC7" t="n">
-        <v>429.1481288929558</v>
+        <v>536.2263310720479</v>
       </c>
       <c r="AD7" t="n">
-        <v>346741.3061835981</v>
+        <v>433257.9031058484</v>
       </c>
       <c r="AE7" t="n">
-        <v>474426.7522672103</v>
+        <v>592802.57701911</v>
       </c>
       <c r="AF7" t="n">
         <v>9.922627994014036e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.26822916666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>429148.1288929558</v>
+        <v>536226.3310720478</v>
       </c>
     </row>
     <row r="8">
@@ -51537,28 +51537,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>342.7914204126866</v>
+        <v>429.3080173349369</v>
       </c>
       <c r="AB8" t="n">
-        <v>469.0223442987874</v>
+        <v>587.3981690506871</v>
       </c>
       <c r="AC8" t="n">
-        <v>424.259510035905</v>
+        <v>531.3377122149971</v>
       </c>
       <c r="AD8" t="n">
-        <v>342791.4204126866</v>
+        <v>429308.0173349369</v>
       </c>
       <c r="AE8" t="n">
-        <v>469022.3442987874</v>
+        <v>587398.1690506871</v>
       </c>
       <c r="AF8" t="n">
         <v>1.00267426520143e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.07291666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>424259.5100359049</v>
+        <v>531337.712214997</v>
       </c>
     </row>
     <row r="9">
@@ -51643,28 +51643,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>328.8094183710519</v>
+        <v>424.9454394556623</v>
       </c>
       <c r="AB9" t="n">
-        <v>449.8915522630274</v>
+        <v>581.4290975329109</v>
       </c>
       <c r="AC9" t="n">
-        <v>406.9545339418026</v>
+        <v>525.9383205052328</v>
       </c>
       <c r="AD9" t="n">
-        <v>328809.4183710519</v>
+        <v>424945.4394556623</v>
       </c>
       <c r="AE9" t="n">
-        <v>449891.5522630274</v>
+        <v>581429.0975329109</v>
       </c>
       <c r="AF9" t="n">
         <v>1.013698170166163e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.87760416666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>406954.5339418026</v>
+        <v>525938.3205052328</v>
       </c>
     </row>
     <row r="10">
@@ -51749,28 +51749,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>325.6452989888784</v>
+        <v>412.2292157188331</v>
       </c>
       <c r="AB10" t="n">
-        <v>445.5622645332422</v>
+        <v>564.0301992159835</v>
       </c>
       <c r="AC10" t="n">
-        <v>403.0384273567547</v>
+        <v>510.1999486241658</v>
       </c>
       <c r="AD10" t="n">
-        <v>325645.2989888784</v>
+        <v>412229.2157188331</v>
       </c>
       <c r="AE10" t="n">
-        <v>445562.2645332422</v>
+        <v>564030.1992159835</v>
       </c>
       <c r="AF10" t="n">
         <v>1.021242307149604e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.74739583333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>403038.4273567547</v>
+        <v>510199.9486241657</v>
       </c>
     </row>
     <row r="11">
@@ -51855,28 +51855,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>322.4202763581901</v>
+        <v>409.0041930881448</v>
       </c>
       <c r="AB11" t="n">
-        <v>441.1496462919775</v>
+        <v>559.6175809747186</v>
       </c>
       <c r="AC11" t="n">
-        <v>399.0469432072877</v>
+        <v>506.2084644746986</v>
       </c>
       <c r="AD11" t="n">
-        <v>322420.2763581901</v>
+        <v>409004.1930881448</v>
       </c>
       <c r="AE11" t="n">
-        <v>441149.6462919775</v>
+        <v>559617.5809747187</v>
       </c>
       <c r="AF11" t="n">
         <v>1.028480224550692e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.62369791666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>399046.9432072876</v>
+        <v>506208.4644746986</v>
       </c>
     </row>
     <row r="12">
@@ -51961,28 +51961,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>320.4556945320796</v>
+        <v>407.0396112620343</v>
       </c>
       <c r="AB12" t="n">
-        <v>438.4616187662598</v>
+        <v>556.9295534490012</v>
       </c>
       <c r="AC12" t="n">
-        <v>396.6154572559541</v>
+        <v>503.7769785233652</v>
       </c>
       <c r="AD12" t="n">
-        <v>320455.6945320796</v>
+        <v>407039.6112620343</v>
       </c>
       <c r="AE12" t="n">
-        <v>438461.6187662599</v>
+        <v>556929.5534490012</v>
       </c>
       <c r="AF12" t="n">
         <v>1.030428894620215e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.59114583333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>396615.4572559542</v>
+        <v>503776.9785233652</v>
       </c>
     </row>
     <row r="13">
@@ -52067,28 +52067,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>317.762554515765</v>
+        <v>404.2449860192346</v>
       </c>
       <c r="AB13" t="n">
-        <v>434.7767457829862</v>
+        <v>553.1058239016381</v>
       </c>
       <c r="AC13" t="n">
-        <v>393.2822633784524</v>
+        <v>500.3181803573645</v>
       </c>
       <c r="AD13" t="n">
-        <v>317762.554515765</v>
+        <v>404244.9860192346</v>
       </c>
       <c r="AE13" t="n">
-        <v>434776.7457829862</v>
+        <v>553105.8239016382</v>
       </c>
       <c r="AF13" t="n">
         <v>1.036414095548038e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.48697916666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>393282.2633784524</v>
+        <v>500318.1803573645</v>
       </c>
     </row>
     <row r="14">
@@ -52173,28 +52173,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>314.5674097724603</v>
+        <v>401.0498412759299</v>
       </c>
       <c r="AB14" t="n">
-        <v>430.405007785359</v>
+        <v>548.734085904011</v>
       </c>
       <c r="AC14" t="n">
-        <v>389.327757919546</v>
+        <v>496.363674898458</v>
       </c>
       <c r="AD14" t="n">
-        <v>314567.4097724603</v>
+        <v>401049.8412759298</v>
       </c>
       <c r="AE14" t="n">
-        <v>430405.007785359</v>
+        <v>548734.0859040109</v>
       </c>
       <c r="AF14" t="n">
         <v>1.042009562461955e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.39583333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>389327.757919546</v>
+        <v>496363.6748984581</v>
       </c>
     </row>
     <row r="15">
@@ -52279,28 +52279,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>312.689626644572</v>
+        <v>399.1720581480415</v>
       </c>
       <c r="AB15" t="n">
-        <v>427.8357420678373</v>
+        <v>546.1648201864892</v>
       </c>
       <c r="AC15" t="n">
-        <v>387.0036993161174</v>
+        <v>494.0396162950295</v>
       </c>
       <c r="AD15" t="n">
-        <v>312689.626644572</v>
+        <v>399172.0581480415</v>
       </c>
       <c r="AE15" t="n">
-        <v>427835.7420678373</v>
+        <v>546164.8201864893</v>
       </c>
       <c r="AF15" t="n">
         <v>1.044375804689234e-05</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>17.35677083333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>387003.6993161174</v>
+        <v>494039.6162950295</v>
       </c>
     </row>
     <row r="16">
@@ -52385,28 +52385,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>311.913916540752</v>
+        <v>398.3963480442216</v>
       </c>
       <c r="AB16" t="n">
-        <v>426.7743812818765</v>
+        <v>545.1034594005283</v>
       </c>
       <c r="AC16" t="n">
-        <v>386.0436333139394</v>
+        <v>493.0795502928515</v>
       </c>
       <c r="AD16" t="n">
-        <v>311913.916540752</v>
+        <v>398396.3480442216</v>
       </c>
       <c r="AE16" t="n">
-        <v>426774.3812818765</v>
+        <v>545103.4594005283</v>
       </c>
       <c r="AF16" t="n">
         <v>1.043484984086023e-05</v>
       </c>
       <c r="AG16" t="n">
-        <v>18</v>
+        <v>17.36979166666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>386043.6333139394</v>
+        <v>493079.5502928515</v>
       </c>
     </row>
     <row r="17">
@@ -52491,28 +52491,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>312.433525733493</v>
+        <v>398.9159572369625</v>
       </c>
       <c r="AB17" t="n">
-        <v>427.4853335029242</v>
+        <v>545.8144116215761</v>
       </c>
       <c r="AC17" t="n">
-        <v>386.6867332528381</v>
+        <v>493.7226502317502</v>
       </c>
       <c r="AD17" t="n">
-        <v>312433.525733493</v>
+        <v>398915.9572369625</v>
       </c>
       <c r="AE17" t="n">
-        <v>427485.3335029242</v>
+        <v>545814.4116215762</v>
       </c>
       <c r="AF17" t="n">
         <v>1.042983897496717e-05</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>17.37630208333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>386686.7332528381</v>
+        <v>493722.6502317502</v>
       </c>
     </row>
   </sheetData>
@@ -52788,28 +52788,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>927.2532494346053</v>
+        <v>1102.405682481399</v>
       </c>
       <c r="AB2" t="n">
-        <v>1268.708803402684</v>
+        <v>1508.360089477296</v>
       </c>
       <c r="AC2" t="n">
-        <v>1147.62501584992</v>
+        <v>1364.404319534264</v>
       </c>
       <c r="AD2" t="n">
-        <v>927253.2494346054</v>
+        <v>1102405.682481399</v>
       </c>
       <c r="AE2" t="n">
-        <v>1268708.803402684</v>
+        <v>1508360.089477296</v>
       </c>
       <c r="AF2" t="n">
         <v>4.623137017323633e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.42317708333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1147625.01584992</v>
+        <v>1364404.319534264</v>
       </c>
     </row>
     <row r="3">
@@ -52894,28 +52894,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>523.1132778137786</v>
+        <v>639.9492233292976</v>
       </c>
       <c r="AB3" t="n">
-        <v>715.7466648338573</v>
+        <v>875.6067599263245</v>
       </c>
       <c r="AC3" t="n">
-        <v>647.4368076988665</v>
+        <v>792.0400796807613</v>
       </c>
       <c r="AD3" t="n">
-        <v>523113.2778137786</v>
+        <v>639949.2233292976</v>
       </c>
       <c r="AE3" t="n">
-        <v>715746.6648338572</v>
+        <v>875606.7599263245</v>
       </c>
       <c r="AF3" t="n">
         <v>6.919990170660706e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.66536458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>647436.8076988665</v>
+        <v>792040.0796807613</v>
       </c>
     </row>
     <row r="4">
@@ -53000,28 +53000,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>451.66792488801</v>
+        <v>548.9980584286857</v>
       </c>
       <c r="AB4" t="n">
-        <v>617.9919810143028</v>
+        <v>751.1633636270985</v>
       </c>
       <c r="AC4" t="n">
-        <v>559.01169370349</v>
+        <v>679.4733864669297</v>
       </c>
       <c r="AD4" t="n">
-        <v>451667.92488801</v>
+        <v>548998.0584286856</v>
       </c>
       <c r="AE4" t="n">
-        <v>617991.9810143028</v>
+        <v>751163.3636270985</v>
       </c>
       <c r="AF4" t="n">
         <v>7.791340441513803e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.02213541666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>559011.69370349</v>
+        <v>679473.3864669297</v>
       </c>
     </row>
     <row r="5">
@@ -53106,28 +53106,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>410.7701368431726</v>
+        <v>517.8014227281701</v>
       </c>
       <c r="AB5" t="n">
-        <v>562.0338231282877</v>
+        <v>708.4787503632205</v>
       </c>
       <c r="AC5" t="n">
-        <v>508.3941038683482</v>
+        <v>640.8625327847253</v>
       </c>
       <c r="AD5" t="n">
-        <v>410770.1368431726</v>
+        <v>517801.4227281701</v>
       </c>
       <c r="AE5" t="n">
-        <v>562033.8231282877</v>
+        <v>708478.7503632205</v>
       </c>
       <c r="AF5" t="n">
         <v>8.239089714642703e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.87630208333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>508394.1038683482</v>
+        <v>640862.5327847253</v>
       </c>
     </row>
     <row r="6">
@@ -53212,28 +53212,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>399.4469700340878</v>
+        <v>496.7087727372017</v>
       </c>
       <c r="AB6" t="n">
-        <v>546.5409667572342</v>
+        <v>679.6188561035343</v>
       </c>
       <c r="AC6" t="n">
-        <v>494.3798639649876</v>
+        <v>614.7569863280676</v>
       </c>
       <c r="AD6" t="n">
-        <v>399446.9700340878</v>
+        <v>496708.7727372018</v>
       </c>
       <c r="AE6" t="n">
-        <v>546540.9667572342</v>
+        <v>679618.8561035343</v>
       </c>
       <c r="AF6" t="n">
         <v>8.500696031527004e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.26432291666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>494379.8639649876</v>
+        <v>614756.9863280676</v>
       </c>
     </row>
     <row r="7">
@@ -53318,28 +53318,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>381.3951714768039</v>
+        <v>478.7242939876222</v>
       </c>
       <c r="AB7" t="n">
-        <v>521.8416995820123</v>
+        <v>655.0116988591539</v>
       </c>
       <c r="AC7" t="n">
-        <v>472.0378601833295</v>
+        <v>592.4983016347287</v>
       </c>
       <c r="AD7" t="n">
-        <v>381395.1714768038</v>
+        <v>478724.2939876222</v>
       </c>
       <c r="AE7" t="n">
-        <v>521841.6995820123</v>
+        <v>655011.6988591539</v>
       </c>
       <c r="AF7" t="n">
         <v>8.695894591048369e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.83463541666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>472037.8601833296</v>
+        <v>592498.3016347287</v>
       </c>
     </row>
     <row r="8">
@@ -53424,28 +53424,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>375.8007247539688</v>
+        <v>473.1298472647872</v>
       </c>
       <c r="AB8" t="n">
-        <v>514.1871307662589</v>
+        <v>647.3571300434005</v>
       </c>
       <c r="AC8" t="n">
-        <v>465.113832672097</v>
+        <v>585.574274123496</v>
       </c>
       <c r="AD8" t="n">
-        <v>375800.7247539688</v>
+        <v>473129.8472647872</v>
       </c>
       <c r="AE8" t="n">
-        <v>514187.1307662589</v>
+        <v>647357.1300434005</v>
       </c>
       <c r="AF8" t="n">
         <v>8.82845856123878e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.54817708333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>465113.832672097</v>
+        <v>585574.274123496</v>
       </c>
     </row>
     <row r="9">
@@ -53530,28 +53530,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>371.8328756368973</v>
+        <v>459.3925149658322</v>
       </c>
       <c r="AB9" t="n">
-        <v>508.7581445551331</v>
+        <v>628.5611059436421</v>
       </c>
       <c r="AC9" t="n">
-        <v>460.202981285331</v>
+        <v>568.572116183433</v>
       </c>
       <c r="AD9" t="n">
-        <v>371832.8756368973</v>
+        <v>459392.5149658322</v>
       </c>
       <c r="AE9" t="n">
-        <v>508758.1445551331</v>
+        <v>628561.1059436421</v>
       </c>
       <c r="AF9" t="n">
         <v>8.917505326793628e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.36588541666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>460202.981285331</v>
+        <v>568572.116183433</v>
       </c>
     </row>
     <row r="10">
@@ -53636,28 +53636,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>367.8281656914293</v>
+        <v>455.3878050203642</v>
       </c>
       <c r="AB10" t="n">
-        <v>503.2787237324101</v>
+        <v>623.081685120919</v>
       </c>
       <c r="AC10" t="n">
-        <v>455.2465086955132</v>
+        <v>563.6156435936152</v>
       </c>
       <c r="AD10" t="n">
-        <v>367828.1656914293</v>
+        <v>455387.8050203642</v>
       </c>
       <c r="AE10" t="n">
-        <v>503278.7237324101</v>
+        <v>623081.685120919</v>
       </c>
       <c r="AF10" t="n">
         <v>9.015859240160706e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.1640625</v>
       </c>
       <c r="AH10" t="n">
-        <v>455246.5086955132</v>
+        <v>563615.6435936153</v>
       </c>
     </row>
     <row r="11">
@@ -53742,28 +53742,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>364.3207606141747</v>
+        <v>451.8803999431095</v>
       </c>
       <c r="AB11" t="n">
-        <v>498.479737369919</v>
+        <v>618.282698758428</v>
       </c>
       <c r="AC11" t="n">
-        <v>450.9055308560386</v>
+        <v>559.2746657541406</v>
       </c>
       <c r="AD11" t="n">
-        <v>364320.7606141747</v>
+        <v>451880.3999431095</v>
       </c>
       <c r="AE11" t="n">
-        <v>498479.737369919</v>
+        <v>618282.698758428</v>
       </c>
       <c r="AF11" t="n">
         <v>9.088304066374821e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>18.02083333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>450905.5308560386</v>
+        <v>559274.6657541406</v>
       </c>
     </row>
     <row r="12">
@@ -53848,28 +53848,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>352.0339927188606</v>
+        <v>449.3289498108982</v>
       </c>
       <c r="AB12" t="n">
-        <v>481.6684394816069</v>
+        <v>614.7916921255008</v>
       </c>
       <c r="AC12" t="n">
-        <v>435.6986796433823</v>
+        <v>556.1168358946014</v>
       </c>
       <c r="AD12" t="n">
-        <v>352033.9927188606</v>
+        <v>449328.9498108982</v>
       </c>
       <c r="AE12" t="n">
-        <v>481668.4394816069</v>
+        <v>614791.6921255009</v>
       </c>
       <c r="AF12" t="n">
         <v>9.142637686035405e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.91015625</v>
       </c>
       <c r="AH12" t="n">
-        <v>435698.6796433823</v>
+        <v>556116.8358946014</v>
       </c>
     </row>
     <row r="13">
@@ -53954,28 +53954,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>349.6638059361107</v>
+        <v>446.9587630281483</v>
       </c>
       <c r="AB13" t="n">
-        <v>478.4254453601876</v>
+        <v>611.5486980040814</v>
       </c>
       <c r="AC13" t="n">
-        <v>432.7651923293403</v>
+        <v>553.1833485805594</v>
       </c>
       <c r="AD13" t="n">
-        <v>349663.8059361107</v>
+        <v>446958.7630281483</v>
       </c>
       <c r="AE13" t="n">
-        <v>478425.4453601876</v>
+        <v>611548.6980040814</v>
       </c>
       <c r="AF13" t="n">
         <v>9.184897167993641e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.83203125</v>
       </c>
       <c r="AH13" t="n">
-        <v>432765.1923293403</v>
+        <v>553183.3485805594</v>
       </c>
     </row>
     <row r="14">
@@ -54060,28 +54060,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>348.0029016586367</v>
+        <v>435.629860795276</v>
       </c>
       <c r="AB14" t="n">
-        <v>476.1529228538225</v>
+        <v>596.0479941731728</v>
       </c>
       <c r="AC14" t="n">
-        <v>430.7095561814774</v>
+        <v>539.1620101678984</v>
       </c>
       <c r="AD14" t="n">
-        <v>348002.9016586368</v>
+        <v>435629.8607952761</v>
       </c>
       <c r="AE14" t="n">
-        <v>476152.9228538225</v>
+        <v>596047.9941731729</v>
       </c>
       <c r="AF14" t="n">
         <v>9.209045443398345e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.77994791666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>430709.5561814774</v>
+        <v>539162.0101678984</v>
       </c>
     </row>
     <row r="15">
@@ -54166,28 +54166,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>345.0841380136799</v>
+        <v>432.7110971503191</v>
       </c>
       <c r="AB15" t="n">
-        <v>472.1593416680283</v>
+        <v>592.0544129873788</v>
       </c>
       <c r="AC15" t="n">
-        <v>427.097116779029</v>
+        <v>535.5495707654501</v>
       </c>
       <c r="AD15" t="n">
-        <v>345084.1380136799</v>
+        <v>432711.0971503191</v>
       </c>
       <c r="AE15" t="n">
-        <v>472159.3416680283</v>
+        <v>592054.4129873788</v>
       </c>
       <c r="AF15" t="n">
         <v>9.265391419342656e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>17.67578125</v>
       </c>
       <c r="AH15" t="n">
-        <v>427097.116779029</v>
+        <v>535549.5707654501</v>
       </c>
     </row>
     <row r="16">
@@ -54272,28 +54272,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>343.6169040558069</v>
+        <v>431.2438631924462</v>
       </c>
       <c r="AB16" t="n">
-        <v>470.1518074370727</v>
+        <v>590.0468787564231</v>
       </c>
       <c r="AC16" t="n">
-        <v>425.2811787974838</v>
+        <v>533.7336327839049</v>
       </c>
       <c r="AD16" t="n">
-        <v>343616.9040558069</v>
+        <v>431243.8631924462</v>
       </c>
       <c r="AE16" t="n">
-        <v>470151.8074370727</v>
+        <v>590046.8787564231</v>
       </c>
       <c r="AF16" t="n">
         <v>9.287527338463636e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>18</v>
+        <v>17.63020833333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>425281.1787974838</v>
+        <v>533733.6327839049</v>
       </c>
     </row>
     <row r="17">
@@ -54378,28 +54378,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>341.8111543235581</v>
+        <v>429.4381134601974</v>
       </c>
       <c r="AB17" t="n">
-        <v>467.6811009893541</v>
+        <v>587.5761723087046</v>
       </c>
       <c r="AC17" t="n">
-        <v>423.0462731054772</v>
+        <v>531.4987270918982</v>
       </c>
       <c r="AD17" t="n">
-        <v>341811.1543235581</v>
+        <v>429438.1134601973</v>
       </c>
       <c r="AE17" t="n">
-        <v>467681.1009893541</v>
+        <v>587576.1723087046</v>
       </c>
       <c r="AF17" t="n">
         <v>9.314945692829394e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>17.578125</v>
       </c>
       <c r="AH17" t="n">
-        <v>423046.2731054772</v>
+        <v>531498.7270918982</v>
       </c>
     </row>
     <row r="18">
@@ -54484,28 +54484,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>340.0852792204294</v>
+        <v>427.7122383570686</v>
       </c>
       <c r="AB18" t="n">
-        <v>465.3196825330175</v>
+        <v>585.2147538523678</v>
       </c>
       <c r="AC18" t="n">
-        <v>420.9102251123417</v>
+        <v>529.3626790987628</v>
       </c>
       <c r="AD18" t="n">
-        <v>340085.2792204294</v>
+        <v>427712.2383570686</v>
       </c>
       <c r="AE18" t="n">
-        <v>465319.6825330175</v>
+        <v>585214.7538523679</v>
       </c>
       <c r="AF18" t="n">
         <v>9.336830067414909e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>18</v>
+        <v>17.5390625</v>
       </c>
       <c r="AH18" t="n">
-        <v>420910.2251123417</v>
+        <v>529362.6790987628</v>
       </c>
     </row>
     <row r="19">
@@ -54590,28 +54590,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>338.6244942279768</v>
+        <v>426.2514533646161</v>
       </c>
       <c r="AB19" t="n">
-        <v>463.3209720610584</v>
+        <v>583.2160433804088</v>
       </c>
       <c r="AC19" t="n">
-        <v>419.1022687626187</v>
+        <v>527.5547227490398</v>
       </c>
       <c r="AD19" t="n">
-        <v>338624.4942279768</v>
+        <v>426251.4533646161</v>
       </c>
       <c r="AE19" t="n">
-        <v>463320.9720610584</v>
+        <v>583216.0433804088</v>
       </c>
       <c r="AF19" t="n">
         <v>9.337584701021304e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>18</v>
+        <v>17.5390625</v>
       </c>
       <c r="AH19" t="n">
-        <v>419102.2687626187</v>
+        <v>527554.7227490398</v>
       </c>
     </row>
     <row r="20">
@@ -54696,28 +54696,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>337.6150106448299</v>
+        <v>425.1404845549839</v>
       </c>
       <c r="AB20" t="n">
-        <v>461.9397520873242</v>
+        <v>581.6959668425852</v>
       </c>
       <c r="AC20" t="n">
-        <v>417.8528704846231</v>
+        <v>526.1797201825452</v>
       </c>
       <c r="AD20" t="n">
-        <v>337615.0106448298</v>
+        <v>425140.4845549839</v>
       </c>
       <c r="AE20" t="n">
-        <v>461939.7520873242</v>
+        <v>581695.9668425852</v>
       </c>
       <c r="AF20" t="n">
         <v>9.36173297642601e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>18</v>
+        <v>17.49348958333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>417852.8704846231</v>
+        <v>526179.7201825453</v>
       </c>
     </row>
     <row r="21">
@@ -54802,28 +54802,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>335.8377791321918</v>
+        <v>423.3632530423459</v>
       </c>
       <c r="AB21" t="n">
-        <v>459.5080655258121</v>
+        <v>579.2642802810732</v>
       </c>
       <c r="AC21" t="n">
-        <v>415.6532606756484</v>
+        <v>523.9801103735704</v>
       </c>
       <c r="AD21" t="n">
-        <v>335837.7791321918</v>
+        <v>423363.2530423459</v>
       </c>
       <c r="AE21" t="n">
-        <v>459508.0655258121</v>
+        <v>579264.2802810732</v>
       </c>
       <c r="AF21" t="n">
         <v>9.385378162759783e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>18</v>
+        <v>17.44791666666667</v>
       </c>
       <c r="AH21" t="n">
-        <v>415653.2606756483</v>
+        <v>523980.1103735704</v>
       </c>
     </row>
     <row r="22">
@@ -54908,28 +54908,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>334.3831053342502</v>
+        <v>421.9085792444042</v>
       </c>
       <c r="AB22" t="n">
-        <v>457.5177166597896</v>
+        <v>577.2739314150508</v>
       </c>
       <c r="AC22" t="n">
-        <v>413.8528679119268</v>
+        <v>522.1797176098489</v>
       </c>
       <c r="AD22" t="n">
-        <v>334383.1053342501</v>
+        <v>421908.5792444042</v>
       </c>
       <c r="AE22" t="n">
-        <v>457517.7166597896</v>
+        <v>577273.9314150508</v>
       </c>
       <c r="AF22" t="n">
         <v>9.389151330791769e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>18</v>
+        <v>17.44140625</v>
       </c>
       <c r="AH22" t="n">
-        <v>413852.8679119268</v>
+        <v>522179.7176098489</v>
       </c>
     </row>
     <row r="23">
@@ -55014,28 +55014,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>333.1873694897436</v>
+        <v>420.7128433998977</v>
       </c>
       <c r="AB23" t="n">
-        <v>455.8816581251934</v>
+        <v>575.6378728804547</v>
       </c>
       <c r="AC23" t="n">
-        <v>412.3729525076499</v>
+        <v>520.699802205572</v>
       </c>
       <c r="AD23" t="n">
-        <v>333187.3694897436</v>
+        <v>420712.8433998977</v>
       </c>
       <c r="AE23" t="n">
-        <v>455881.6581251934</v>
+        <v>575637.8728804546</v>
       </c>
       <c r="AF23" t="n">
         <v>9.412293428054609e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>18</v>
+        <v>17.39583333333333</v>
       </c>
       <c r="AH23" t="n">
-        <v>412372.9525076499</v>
+        <v>520699.802205572</v>
       </c>
     </row>
     <row r="24">
@@ -55120,28 +55120,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>333.4481154348067</v>
+        <v>420.9735893449608</v>
       </c>
       <c r="AB24" t="n">
-        <v>456.2384222305279</v>
+        <v>575.994636985789</v>
       </c>
       <c r="AC24" t="n">
-        <v>412.6956675474929</v>
+        <v>521.0225172454149</v>
       </c>
       <c r="AD24" t="n">
-        <v>333448.1154348067</v>
+        <v>420973.5893449608</v>
       </c>
       <c r="AE24" t="n">
-        <v>456238.4222305279</v>
+        <v>575994.6369857891</v>
       </c>
       <c r="AF24" t="n">
         <v>9.412796517125542e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>18</v>
+        <v>17.39583333333333</v>
       </c>
       <c r="AH24" t="n">
-        <v>412695.6675474928</v>
+        <v>521022.5172454149</v>
       </c>
     </row>
   </sheetData>
@@ -55417,28 +55417,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>234.2574902735753</v>
+        <v>324.5200184321689</v>
       </c>
       <c r="AB2" t="n">
-        <v>320.5214329032398</v>
+        <v>444.0226060316779</v>
       </c>
       <c r="AC2" t="n">
-        <v>289.9313172017062</v>
+        <v>401.6457117016553</v>
       </c>
       <c r="AD2" t="n">
-        <v>234257.4902735754</v>
+        <v>324520.0184321689</v>
       </c>
       <c r="AE2" t="n">
-        <v>320521.4329032398</v>
+        <v>444022.6060316779</v>
       </c>
       <c r="AF2" t="n">
         <v>2.092084740864709e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.99088541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>289931.3172017062</v>
+        <v>401645.7117016553</v>
       </c>
     </row>
   </sheetData>
@@ -55714,28 +55714,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>472.0377946837592</v>
+        <v>594.7640314516673</v>
       </c>
       <c r="AB2" t="n">
-        <v>645.8629355240785</v>
+        <v>813.7823869693742</v>
       </c>
       <c r="AC2" t="n">
-        <v>584.2226834319828</v>
+        <v>736.1161381077699</v>
       </c>
       <c r="AD2" t="n">
-        <v>472037.7946837592</v>
+        <v>594764.0314516673</v>
       </c>
       <c r="AE2" t="n">
-        <v>645862.9355240784</v>
+        <v>813782.3869693743</v>
       </c>
       <c r="AF2" t="n">
         <v>8.737790492739834e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.78515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>584222.6834319828</v>
+        <v>736116.1381077699</v>
       </c>
     </row>
     <row r="3">
@@ -55820,28 +55820,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>348.3101766505224</v>
+        <v>452.1160322786206</v>
       </c>
       <c r="AB3" t="n">
-        <v>476.5733500537362</v>
+        <v>618.605101315239</v>
       </c>
       <c r="AC3" t="n">
-        <v>431.0898583995046</v>
+        <v>559.5662986634245</v>
       </c>
       <c r="AD3" t="n">
-        <v>348310.1766505224</v>
+        <v>452116.0322786206</v>
       </c>
       <c r="AE3" t="n">
-        <v>476573.3500537362</v>
+        <v>618605.1013152391</v>
       </c>
       <c r="AF3" t="n">
         <v>1.084871345483374e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.96744791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>431089.8583995046</v>
+        <v>559566.2986634246</v>
       </c>
     </row>
     <row r="4">
@@ -55926,28 +55926,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>320.2708054931395</v>
+        <v>414.6677186795039</v>
       </c>
       <c r="AB4" t="n">
-        <v>438.2086454264532</v>
+        <v>567.3666665459315</v>
       </c>
       <c r="AC4" t="n">
-        <v>396.3866273366484</v>
+        <v>513.2179881949047</v>
       </c>
       <c r="AD4" t="n">
-        <v>320270.8054931395</v>
+        <v>414667.7186795039</v>
       </c>
       <c r="AE4" t="n">
-        <v>438208.6454264533</v>
+        <v>567366.6665459315</v>
       </c>
       <c r="AF4" t="n">
         <v>1.156266785619757e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.73046875</v>
       </c>
       <c r="AH4" t="n">
-        <v>396386.6273366484</v>
+        <v>513217.9881949048</v>
       </c>
     </row>
     <row r="5">
@@ -56032,28 +56032,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>310.2695778161195</v>
+        <v>395.1902287530459</v>
       </c>
       <c r="AB5" t="n">
-        <v>424.5245244957295</v>
+        <v>540.7167055423413</v>
       </c>
       <c r="AC5" t="n">
-        <v>384.0084997017686</v>
+        <v>489.1114620660421</v>
       </c>
       <c r="AD5" t="n">
-        <v>310269.5778161195</v>
+        <v>395190.2287530459</v>
       </c>
       <c r="AE5" t="n">
-        <v>424524.5244957295</v>
+        <v>540716.7055423413</v>
       </c>
       <c r="AF5" t="n">
         <v>1.195823718668293e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.11197916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>384008.4997017686</v>
+        <v>489111.4620660421</v>
       </c>
     </row>
     <row r="6">
@@ -56138,28 +56138,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>295.0696058061404</v>
+        <v>380.0575765507712</v>
       </c>
       <c r="AB6" t="n">
-        <v>403.7272522162377</v>
+        <v>520.0115431936911</v>
       </c>
       <c r="AC6" t="n">
-        <v>365.1960898994765</v>
+        <v>470.3823713520691</v>
       </c>
       <c r="AD6" t="n">
-        <v>295069.6058061403</v>
+        <v>380057.5765507711</v>
       </c>
       <c r="AE6" t="n">
-        <v>403727.2522162377</v>
+        <v>520011.5431936911</v>
       </c>
       <c r="AF6" t="n">
         <v>1.215485743421603e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.81901041666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>365196.0898994765</v>
+        <v>470382.3713520691</v>
       </c>
     </row>
     <row r="7">
@@ -56244,28 +56244,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>290.037082447372</v>
+        <v>375.0250531920028</v>
       </c>
       <c r="AB7" t="n">
-        <v>396.8415317375096</v>
+        <v>513.1258227149631</v>
       </c>
       <c r="AC7" t="n">
-        <v>358.9675329190689</v>
+        <v>464.1538143716615</v>
       </c>
       <c r="AD7" t="n">
-        <v>290037.082447372</v>
+        <v>375025.0531920028</v>
       </c>
       <c r="AE7" t="n">
-        <v>396841.5317375096</v>
+        <v>513125.8227149631</v>
       </c>
       <c r="AF7" t="n">
         <v>1.231721053200986e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.58463541666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>358967.5329190689</v>
+        <v>464153.8143716615</v>
       </c>
     </row>
     <row r="8">
@@ -56350,28 +56350,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>286.3651767526322</v>
+        <v>371.2516622707777</v>
       </c>
       <c r="AB8" t="n">
-        <v>391.8174683729203</v>
+        <v>507.9629027862844</v>
       </c>
       <c r="AC8" t="n">
-        <v>354.4229591106787</v>
+        <v>459.4836362747723</v>
       </c>
       <c r="AD8" t="n">
-        <v>286365.1767526323</v>
+        <v>371251.6622707777</v>
       </c>
       <c r="AE8" t="n">
-        <v>391817.4683729203</v>
+        <v>507962.9027862843</v>
       </c>
       <c r="AF8" t="n">
         <v>1.241136202109931e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.44791666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>354422.9591106788</v>
+        <v>459483.6362747723</v>
       </c>
     </row>
     <row r="9">
@@ -56456,28 +56456,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>283.9521041148354</v>
+        <v>368.838589632981</v>
       </c>
       <c r="AB9" t="n">
-        <v>388.5157959326353</v>
+        <v>504.6612303459993</v>
       </c>
       <c r="AC9" t="n">
-        <v>351.4363936541681</v>
+        <v>456.4970708182617</v>
       </c>
       <c r="AD9" t="n">
-        <v>283952.1041148354</v>
+        <v>368838.589632981</v>
       </c>
       <c r="AE9" t="n">
-        <v>388515.7959326353</v>
+        <v>504661.2303459993</v>
       </c>
       <c r="AF9" t="n">
         <v>1.246958290657865e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.36979166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>351436.3936541681</v>
+        <v>456497.0708182617</v>
       </c>
     </row>
   </sheetData>
@@ -56753,28 +56753,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>593.3998925619608</v>
+        <v>736.655780961232</v>
       </c>
       <c r="AB2" t="n">
-        <v>811.9159119589173</v>
+        <v>1007.924938470553</v>
       </c>
       <c r="AC2" t="n">
-        <v>734.4277968526969</v>
+        <v>911.7299969744585</v>
       </c>
       <c r="AD2" t="n">
-        <v>593399.8925619607</v>
+        <v>736655.780961232</v>
       </c>
       <c r="AE2" t="n">
-        <v>811915.9119589173</v>
+        <v>1007924.938470553</v>
       </c>
       <c r="AF2" t="n">
         <v>6.923437298827109e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.85807291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>734427.7968526969</v>
+        <v>911729.9969744585</v>
       </c>
     </row>
     <row r="3">
@@ -56859,28 +56859,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>410.6791959302809</v>
+        <v>515.6821381441397</v>
       </c>
       <c r="AB3" t="n">
-        <v>561.9093937592394</v>
+        <v>705.5790516991127</v>
       </c>
       <c r="AC3" t="n">
-        <v>508.2815498636441</v>
+        <v>638.2395772913675</v>
       </c>
       <c r="AD3" t="n">
-        <v>410679.1959302808</v>
+        <v>515682.1381441397</v>
       </c>
       <c r="AE3" t="n">
-        <v>561909.3937592393</v>
+        <v>705579.0516991128</v>
       </c>
       <c r="AF3" t="n">
         <v>9.130132966062706e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.12630208333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>508281.5498636441</v>
+        <v>638239.5772913675</v>
       </c>
     </row>
     <row r="4">
@@ -56965,28 +56965,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>364.4157735084552</v>
+        <v>459.863767773192</v>
       </c>
       <c r="AB4" t="n">
-        <v>498.6097382035468</v>
+        <v>629.2058948248782</v>
       </c>
       <c r="AC4" t="n">
-        <v>451.0231245925623</v>
+        <v>569.1553673188109</v>
       </c>
       <c r="AD4" t="n">
-        <v>364415.7735084553</v>
+        <v>459863.767773192</v>
       </c>
       <c r="AE4" t="n">
-        <v>498609.7382035468</v>
+        <v>629205.8948248782</v>
       </c>
       <c r="AF4" t="n">
         <v>9.905098178237269e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.47265625</v>
       </c>
       <c r="AH4" t="n">
-        <v>451023.1245925623</v>
+        <v>569155.3673188109</v>
       </c>
     </row>
     <row r="5">
@@ -57071,28 +57071,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>342.1189083124887</v>
+        <v>437.6342223849298</v>
       </c>
       <c r="AB5" t="n">
-        <v>468.1021835741567</v>
+        <v>598.7904501263296</v>
       </c>
       <c r="AC5" t="n">
-        <v>423.4271681593793</v>
+        <v>541.642729973947</v>
       </c>
       <c r="AD5" t="n">
-        <v>342118.9083124887</v>
+        <v>437634.2223849298</v>
       </c>
       <c r="AE5" t="n">
-        <v>468102.1835741567</v>
+        <v>598790.4501263296</v>
       </c>
       <c r="AF5" t="n">
         <v>1.030383792425675e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.71744791666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>423427.1681593793</v>
+        <v>541642.7299739469</v>
       </c>
     </row>
     <row r="6">
@@ -57177,28 +57177,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>334.0005121439581</v>
+        <v>419.9277238783535</v>
       </c>
       <c r="AB6" t="n">
-        <v>456.9942357780118</v>
+        <v>574.5636377140489</v>
       </c>
       <c r="AC6" t="n">
-        <v>413.3793473107959</v>
+        <v>519.7280905357496</v>
       </c>
       <c r="AD6" t="n">
-        <v>334000.5121439581</v>
+        <v>419927.7238783535</v>
       </c>
       <c r="AE6" t="n">
-        <v>456994.2357780118</v>
+        <v>574563.637714049</v>
       </c>
       <c r="AF6" t="n">
         <v>1.056482582636906e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.25520833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>413379.3473107959</v>
+        <v>519728.0905357497</v>
       </c>
     </row>
     <row r="7">
@@ -57283,28 +57283,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>329.0456442906037</v>
+        <v>414.972856024999</v>
       </c>
       <c r="AB7" t="n">
-        <v>450.2147669877102</v>
+        <v>567.7841689237473</v>
       </c>
       <c r="AC7" t="n">
-        <v>407.2469015067963</v>
+        <v>513.5956447317502</v>
       </c>
       <c r="AD7" t="n">
-        <v>329045.6442906037</v>
+        <v>414972.856024999</v>
       </c>
       <c r="AE7" t="n">
-        <v>450214.7669877101</v>
+        <v>567784.1689237473</v>
       </c>
       <c r="AF7" t="n">
         <v>1.070820624024233e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.0078125</v>
       </c>
       <c r="AH7" t="n">
-        <v>407246.9015067964</v>
+        <v>513595.6447317502</v>
       </c>
     </row>
     <row r="8">
@@ -57389,28 +57389,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>315.1281507081081</v>
+        <v>401.1226822502078</v>
       </c>
       <c r="AB8" t="n">
-        <v>431.1722382716566</v>
+        <v>548.8337501385352</v>
       </c>
       <c r="AC8" t="n">
-        <v>390.0217650050459</v>
+        <v>496.4538273183189</v>
       </c>
       <c r="AD8" t="n">
-        <v>315128.1507081082</v>
+        <v>401122.6822502079</v>
       </c>
       <c r="AE8" t="n">
-        <v>431172.2382716566</v>
+        <v>548833.7501385352</v>
       </c>
       <c r="AF8" t="n">
         <v>1.083114605792293e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.80598958333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>390021.765005046</v>
+        <v>496453.8273183189</v>
       </c>
     </row>
     <row r="9">
@@ -57495,28 +57495,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>311.3435589089488</v>
+        <v>397.3380904510485</v>
       </c>
       <c r="AB9" t="n">
-        <v>425.9939928076402</v>
+        <v>543.655504674519</v>
       </c>
       <c r="AC9" t="n">
-        <v>385.3377240204023</v>
+        <v>491.7697863336751</v>
       </c>
       <c r="AD9" t="n">
-        <v>311343.5589089488</v>
+        <v>397338.0904510485</v>
       </c>
       <c r="AE9" t="n">
-        <v>425993.9928076402</v>
+        <v>543655.5046745189</v>
       </c>
       <c r="AF9" t="n">
         <v>1.0930386633641e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.64322916666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>385337.7240204023</v>
+        <v>491769.7863336751</v>
       </c>
     </row>
     <row r="10">
@@ -57601,28 +57601,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>307.9481054986801</v>
+        <v>393.9426370407799</v>
       </c>
       <c r="AB10" t="n">
-        <v>421.3481836548785</v>
+        <v>539.0096955217571</v>
       </c>
       <c r="AC10" t="n">
-        <v>381.1353043727459</v>
+        <v>487.5673666860189</v>
       </c>
       <c r="AD10" t="n">
-        <v>307948.1054986801</v>
+        <v>393942.6370407799</v>
       </c>
       <c r="AE10" t="n">
-        <v>421348.1836548785</v>
+        <v>539009.6955217571</v>
       </c>
       <c r="AF10" t="n">
         <v>1.100770541054374e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.51953125</v>
       </c>
       <c r="AH10" t="n">
-        <v>381135.3043727459</v>
+        <v>487567.3666860189</v>
       </c>
     </row>
     <row r="11">
@@ -57707,28 +57707,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>305.0931229867014</v>
+        <v>390.9861693023159</v>
       </c>
       <c r="AB11" t="n">
-        <v>417.44187062905</v>
+        <v>534.9645259318393</v>
       </c>
       <c r="AC11" t="n">
-        <v>377.6018043795578</v>
+        <v>483.9082624043317</v>
       </c>
       <c r="AD11" t="n">
-        <v>305093.1229867014</v>
+        <v>390986.1693023159</v>
       </c>
       <c r="AE11" t="n">
-        <v>417441.87062905</v>
+        <v>534964.5259318392</v>
       </c>
       <c r="AF11" t="n">
         <v>1.106280614810661e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.43489583333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>377601.8043795578</v>
+        <v>483908.2624043316</v>
       </c>
     </row>
     <row r="12">
@@ -57813,28 +57813,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>302.0233277858449</v>
+        <v>387.9163741014593</v>
       </c>
       <c r="AB12" t="n">
-        <v>413.2416414054319</v>
+        <v>530.7642967082213</v>
       </c>
       <c r="AC12" t="n">
-        <v>373.8024391379831</v>
+        <v>480.108897162757</v>
       </c>
       <c r="AD12" t="n">
-        <v>302023.3277858449</v>
+        <v>387916.3741014593</v>
       </c>
       <c r="AE12" t="n">
-        <v>413241.641405432</v>
+        <v>530764.2967082213</v>
       </c>
       <c r="AF12" t="n">
         <v>1.111761064514495e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.35026041666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>373802.4391379831</v>
+        <v>480108.897162757</v>
       </c>
     </row>
     <row r="13">
@@ -57919,28 +57919,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>300.6685110759703</v>
+        <v>386.5615573915849</v>
       </c>
       <c r="AB13" t="n">
-        <v>411.3879214126867</v>
+        <v>528.9105767154762</v>
       </c>
       <c r="AC13" t="n">
-        <v>372.1256355796332</v>
+        <v>478.432093604407</v>
       </c>
       <c r="AD13" t="n">
-        <v>300668.5110759703</v>
+        <v>386561.5573915849</v>
       </c>
       <c r="AE13" t="n">
-        <v>411387.9214126867</v>
+        <v>528910.5767154761</v>
       </c>
       <c r="AF13" t="n">
         <v>1.113893996291122e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.31119791666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>372125.6355796332</v>
+        <v>478432.093604407</v>
       </c>
     </row>
     <row r="14">
@@ -58025,28 +58025,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>301.3651769733925</v>
+        <v>387.258223289007</v>
       </c>
       <c r="AB14" t="n">
-        <v>412.3411304282701</v>
+        <v>529.8637857310592</v>
       </c>
       <c r="AC14" t="n">
-        <v>372.9878716646064</v>
+        <v>479.2943296893803</v>
       </c>
       <c r="AD14" t="n">
-        <v>301365.1769733925</v>
+        <v>387258.223289007</v>
       </c>
       <c r="AE14" t="n">
-        <v>412341.1304282701</v>
+        <v>529863.7857310593</v>
       </c>
       <c r="AF14" t="n">
         <v>1.113834748186216e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.31770833333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>372987.8716646064</v>
+        <v>479294.3296893803</v>
       </c>
     </row>
   </sheetData>
